--- a/INTLINE/data/134/DEUSTATIS/old/Producer price index for industrial products - GP9 codes.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Producer price index for industrial products - GP9 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="72">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -169,6 +169,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>January</t>
   </si>
   <si>
@@ -226,7 +229,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:31:07</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:06:59</t>
   </si>
 </sst>
 </file>
@@ -791,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2239">
+  <cellXfs count="2287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -3059,8 +3062,104 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -7503,6 +7602,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -7513,6 +7660,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -9764,3185 +9959,3235 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="1131">
+      <c r="A5" t="s" s="1155">
         <v>4</v>
       </c>
-      <c r="B5" s="1132"/>
-      <c r="C5" t="s" s="1133">
+      <c r="B5" s="1156"/>
+      <c r="C5" t="s" s="1157">
         <v>5</v>
       </c>
-      <c r="D5" s="1134"/>
-      <c r="E5" s="1135"/>
-      <c r="F5" s="1136"/>
-      <c r="G5" s="1137"/>
-      <c r="H5" s="1138"/>
-      <c r="I5" s="1139"/>
-      <c r="J5" s="1140"/>
-      <c r="K5" s="1141"/>
-      <c r="L5" s="1142"/>
-      <c r="M5" s="1143"/>
-      <c r="N5" s="1144"/>
-      <c r="O5" t="s" s="1145">
+      <c r="D5" s="1158"/>
+      <c r="E5" s="1159"/>
+      <c r="F5" s="1160"/>
+      <c r="G5" s="1161"/>
+      <c r="H5" s="1162"/>
+      <c r="I5" s="1163"/>
+      <c r="J5" s="1164"/>
+      <c r="K5" s="1165"/>
+      <c r="L5" s="1166"/>
+      <c r="M5" s="1167"/>
+      <c r="N5" s="1168"/>
+      <c r="O5" t="s" s="1169">
         <v>6</v>
       </c>
-      <c r="P5" s="1146"/>
-      <c r="Q5" s="1147"/>
-      <c r="R5" s="1148"/>
-      <c r="S5" s="1149"/>
-      <c r="T5" s="1150"/>
-      <c r="U5" s="1151"/>
-      <c r="V5" s="1152"/>
-      <c r="W5" s="1153"/>
-      <c r="X5" s="1154"/>
-      <c r="Y5" s="1155"/>
-      <c r="Z5" s="1156"/>
-      <c r="AA5" t="s" s="1157">
+      <c r="P5" s="1170"/>
+      <c r="Q5" s="1171"/>
+      <c r="R5" s="1172"/>
+      <c r="S5" s="1173"/>
+      <c r="T5" s="1174"/>
+      <c r="U5" s="1175"/>
+      <c r="V5" s="1176"/>
+      <c r="W5" s="1177"/>
+      <c r="X5" s="1178"/>
+      <c r="Y5" s="1179"/>
+      <c r="Z5" s="1180"/>
+      <c r="AA5" t="s" s="1181">
         <v>7</v>
       </c>
-      <c r="AB5" s="1158"/>
-      <c r="AC5" s="1159"/>
-      <c r="AD5" s="1160"/>
-      <c r="AE5" s="1161"/>
-      <c r="AF5" s="1162"/>
-      <c r="AG5" s="1163"/>
-      <c r="AH5" s="1164"/>
-      <c r="AI5" s="1165"/>
-      <c r="AJ5" s="1166"/>
-      <c r="AK5" s="1167"/>
-      <c r="AL5" s="1168"/>
-      <c r="AM5" t="s" s="1169">
+      <c r="AB5" s="1182"/>
+      <c r="AC5" s="1183"/>
+      <c r="AD5" s="1184"/>
+      <c r="AE5" s="1185"/>
+      <c r="AF5" s="1186"/>
+      <c r="AG5" s="1187"/>
+      <c r="AH5" s="1188"/>
+      <c r="AI5" s="1189"/>
+      <c r="AJ5" s="1190"/>
+      <c r="AK5" s="1191"/>
+      <c r="AL5" s="1192"/>
+      <c r="AM5" t="s" s="1193">
         <v>8</v>
       </c>
-      <c r="AN5" s="1170"/>
-      <c r="AO5" s="1171"/>
-      <c r="AP5" s="1172"/>
-      <c r="AQ5" s="1173"/>
-      <c r="AR5" s="1174"/>
-      <c r="AS5" s="1175"/>
-      <c r="AT5" s="1176"/>
-      <c r="AU5" s="1177"/>
-      <c r="AV5" s="1178"/>
-      <c r="AW5" s="1179"/>
-      <c r="AX5" s="1180"/>
-      <c r="AY5" t="s" s="1181">
+      <c r="AN5" s="1194"/>
+      <c r="AO5" s="1195"/>
+      <c r="AP5" s="1196"/>
+      <c r="AQ5" s="1197"/>
+      <c r="AR5" s="1198"/>
+      <c r="AS5" s="1199"/>
+      <c r="AT5" s="1200"/>
+      <c r="AU5" s="1201"/>
+      <c r="AV5" s="1202"/>
+      <c r="AW5" s="1203"/>
+      <c r="AX5" s="1204"/>
+      <c r="AY5" t="s" s="1205">
         <v>9</v>
       </c>
-      <c r="AZ5" s="1182"/>
-      <c r="BA5" s="1183"/>
-      <c r="BB5" s="1184"/>
-      <c r="BC5" s="1185"/>
-      <c r="BD5" s="1186"/>
-      <c r="BE5" s="1187"/>
-      <c r="BF5" s="1188"/>
-      <c r="BG5" s="1189"/>
-      <c r="BH5" s="1190"/>
-      <c r="BI5" s="1191"/>
-      <c r="BJ5" s="1192"/>
-      <c r="BK5" t="s" s="1193">
+      <c r="AZ5" s="1206"/>
+      <c r="BA5" s="1207"/>
+      <c r="BB5" s="1208"/>
+      <c r="BC5" s="1209"/>
+      <c r="BD5" s="1210"/>
+      <c r="BE5" s="1211"/>
+      <c r="BF5" s="1212"/>
+      <c r="BG5" s="1213"/>
+      <c r="BH5" s="1214"/>
+      <c r="BI5" s="1215"/>
+      <c r="BJ5" s="1216"/>
+      <c r="BK5" t="s" s="1217">
         <v>10</v>
       </c>
-      <c r="BL5" s="1194"/>
-      <c r="BM5" s="1195"/>
-      <c r="BN5" s="1196"/>
-      <c r="BO5" s="1197"/>
-      <c r="BP5" s="1198"/>
-      <c r="BQ5" s="1199"/>
-      <c r="BR5" s="1200"/>
-      <c r="BS5" s="1201"/>
-      <c r="BT5" s="1202"/>
-      <c r="BU5" s="1203"/>
-      <c r="BV5" s="1204"/>
-      <c r="BW5" t="s" s="1205">
+      <c r="BL5" s="1218"/>
+      <c r="BM5" s="1219"/>
+      <c r="BN5" s="1220"/>
+      <c r="BO5" s="1221"/>
+      <c r="BP5" s="1222"/>
+      <c r="BQ5" s="1223"/>
+      <c r="BR5" s="1224"/>
+      <c r="BS5" s="1225"/>
+      <c r="BT5" s="1226"/>
+      <c r="BU5" s="1227"/>
+      <c r="BV5" s="1228"/>
+      <c r="BW5" t="s" s="1229">
         <v>11</v>
       </c>
-      <c r="BX5" s="1206"/>
-      <c r="BY5" s="1207"/>
-      <c r="BZ5" s="1208"/>
-      <c r="CA5" s="1209"/>
-      <c r="CB5" s="1210"/>
-      <c r="CC5" s="1211"/>
-      <c r="CD5" s="1212"/>
-      <c r="CE5" s="1213"/>
-      <c r="CF5" s="1214"/>
-      <c r="CG5" s="1215"/>
-      <c r="CH5" s="1216"/>
-      <c r="CI5" t="s" s="1217">
+      <c r="BX5" s="1230"/>
+      <c r="BY5" s="1231"/>
+      <c r="BZ5" s="1232"/>
+      <c r="CA5" s="1233"/>
+      <c r="CB5" s="1234"/>
+      <c r="CC5" s="1235"/>
+      <c r="CD5" s="1236"/>
+      <c r="CE5" s="1237"/>
+      <c r="CF5" s="1238"/>
+      <c r="CG5" s="1239"/>
+      <c r="CH5" s="1240"/>
+      <c r="CI5" t="s" s="1241">
         <v>12</v>
       </c>
-      <c r="CJ5" s="1218"/>
-      <c r="CK5" s="1219"/>
-      <c r="CL5" s="1220"/>
-      <c r="CM5" s="1221"/>
-      <c r="CN5" s="1222"/>
-      <c r="CO5" s="1223"/>
-      <c r="CP5" s="1224"/>
-      <c r="CQ5" s="1225"/>
-      <c r="CR5" s="1226"/>
-      <c r="CS5" s="1227"/>
-      <c r="CT5" s="1228"/>
-      <c r="CU5" t="s" s="1229">
+      <c r="CJ5" s="1242"/>
+      <c r="CK5" s="1243"/>
+      <c r="CL5" s="1244"/>
+      <c r="CM5" s="1245"/>
+      <c r="CN5" s="1246"/>
+      <c r="CO5" s="1247"/>
+      <c r="CP5" s="1248"/>
+      <c r="CQ5" s="1249"/>
+      <c r="CR5" s="1250"/>
+      <c r="CS5" s="1251"/>
+      <c r="CT5" s="1252"/>
+      <c r="CU5" t="s" s="1253">
         <v>13</v>
       </c>
-      <c r="CV5" s="1230"/>
-      <c r="CW5" s="1231"/>
-      <c r="CX5" s="1232"/>
-      <c r="CY5" s="1233"/>
-      <c r="CZ5" s="1234"/>
-      <c r="DA5" s="1235"/>
-      <c r="DB5" s="1236"/>
-      <c r="DC5" s="1237"/>
-      <c r="DD5" s="1238"/>
-      <c r="DE5" s="1239"/>
-      <c r="DF5" s="1240"/>
-      <c r="DG5" t="s" s="1241">
+      <c r="CV5" s="1254"/>
+      <c r="CW5" s="1255"/>
+      <c r="CX5" s="1256"/>
+      <c r="CY5" s="1257"/>
+      <c r="CZ5" s="1258"/>
+      <c r="DA5" s="1259"/>
+      <c r="DB5" s="1260"/>
+      <c r="DC5" s="1261"/>
+      <c r="DD5" s="1262"/>
+      <c r="DE5" s="1263"/>
+      <c r="DF5" s="1264"/>
+      <c r="DG5" t="s" s="1265">
         <v>14</v>
       </c>
-      <c r="DH5" s="1242"/>
-      <c r="DI5" s="1243"/>
-      <c r="DJ5" s="1244"/>
-      <c r="DK5" s="1245"/>
-      <c r="DL5" s="1246"/>
-      <c r="DM5" s="1247"/>
-      <c r="DN5" s="1248"/>
-      <c r="DO5" s="1249"/>
-      <c r="DP5" s="1250"/>
-      <c r="DQ5" s="1251"/>
-      <c r="DR5" s="1252"/>
-      <c r="DS5" t="s" s="1253">
+      <c r="DH5" s="1266"/>
+      <c r="DI5" s="1267"/>
+      <c r="DJ5" s="1268"/>
+      <c r="DK5" s="1269"/>
+      <c r="DL5" s="1270"/>
+      <c r="DM5" s="1271"/>
+      <c r="DN5" s="1272"/>
+      <c r="DO5" s="1273"/>
+      <c r="DP5" s="1274"/>
+      <c r="DQ5" s="1275"/>
+      <c r="DR5" s="1276"/>
+      <c r="DS5" t="s" s="1277">
         <v>15</v>
       </c>
-      <c r="DT5" s="1254"/>
-      <c r="DU5" s="1255"/>
-      <c r="DV5" s="1256"/>
-      <c r="DW5" s="1257"/>
-      <c r="DX5" s="1258"/>
-      <c r="DY5" s="1259"/>
-      <c r="DZ5" s="1260"/>
-      <c r="EA5" s="1261"/>
-      <c r="EB5" s="1262"/>
-      <c r="EC5" s="1263"/>
-      <c r="ED5" s="1264"/>
-      <c r="EE5" t="s" s="1265">
+      <c r="DT5" s="1278"/>
+      <c r="DU5" s="1279"/>
+      <c r="DV5" s="1280"/>
+      <c r="DW5" s="1281"/>
+      <c r="DX5" s="1282"/>
+      <c r="DY5" s="1283"/>
+      <c r="DZ5" s="1284"/>
+      <c r="EA5" s="1285"/>
+      <c r="EB5" s="1286"/>
+      <c r="EC5" s="1287"/>
+      <c r="ED5" s="1288"/>
+      <c r="EE5" t="s" s="1289">
         <v>16</v>
       </c>
-      <c r="EF5" s="1266"/>
-      <c r="EG5" s="1267"/>
-      <c r="EH5" s="1268"/>
-      <c r="EI5" s="1269"/>
-      <c r="EJ5" s="1270"/>
-      <c r="EK5" s="1271"/>
-      <c r="EL5" s="1272"/>
-      <c r="EM5" s="1273"/>
-      <c r="EN5" s="1274"/>
-      <c r="EO5" s="1275"/>
-      <c r="EP5" s="1276"/>
-      <c r="EQ5" t="s" s="1277">
+      <c r="EF5" s="1290"/>
+      <c r="EG5" s="1291"/>
+      <c r="EH5" s="1292"/>
+      <c r="EI5" s="1293"/>
+      <c r="EJ5" s="1294"/>
+      <c r="EK5" s="1295"/>
+      <c r="EL5" s="1296"/>
+      <c r="EM5" s="1297"/>
+      <c r="EN5" s="1298"/>
+      <c r="EO5" s="1299"/>
+      <c r="EP5" s="1300"/>
+      <c r="EQ5" t="s" s="1301">
         <v>17</v>
       </c>
-      <c r="ER5" s="1278"/>
-      <c r="ES5" s="1279"/>
-      <c r="ET5" s="1280"/>
-      <c r="EU5" s="1281"/>
-      <c r="EV5" s="1282"/>
-      <c r="EW5" s="1283"/>
-      <c r="EX5" s="1284"/>
-      <c r="EY5" s="1285"/>
-      <c r="EZ5" s="1286"/>
-      <c r="FA5" s="1287"/>
-      <c r="FB5" s="1288"/>
-      <c r="FC5" t="s" s="1289">
+      <c r="ER5" s="1302"/>
+      <c r="ES5" s="1303"/>
+      <c r="ET5" s="1304"/>
+      <c r="EU5" s="1305"/>
+      <c r="EV5" s="1306"/>
+      <c r="EW5" s="1307"/>
+      <c r="EX5" s="1308"/>
+      <c r="EY5" s="1309"/>
+      <c r="EZ5" s="1310"/>
+      <c r="FA5" s="1311"/>
+      <c r="FB5" s="1312"/>
+      <c r="FC5" t="s" s="1313">
         <v>18</v>
       </c>
-      <c r="FD5" s="1290"/>
-      <c r="FE5" s="1291"/>
-      <c r="FF5" s="1292"/>
-      <c r="FG5" s="1293"/>
-      <c r="FH5" s="1294"/>
-      <c r="FI5" s="1295"/>
-      <c r="FJ5" s="1296"/>
-      <c r="FK5" s="1297"/>
-      <c r="FL5" s="1298"/>
-      <c r="FM5" s="1299"/>
-      <c r="FN5" s="1300"/>
-      <c r="FO5" t="s" s="1301">
+      <c r="FD5" s="1314"/>
+      <c r="FE5" s="1315"/>
+      <c r="FF5" s="1316"/>
+      <c r="FG5" s="1317"/>
+      <c r="FH5" s="1318"/>
+      <c r="FI5" s="1319"/>
+      <c r="FJ5" s="1320"/>
+      <c r="FK5" s="1321"/>
+      <c r="FL5" s="1322"/>
+      <c r="FM5" s="1323"/>
+      <c r="FN5" s="1324"/>
+      <c r="FO5" t="s" s="1325">
         <v>19</v>
       </c>
-      <c r="FP5" s="1302"/>
-      <c r="FQ5" s="1303"/>
-      <c r="FR5" s="1304"/>
-      <c r="FS5" s="1305"/>
-      <c r="FT5" s="1306"/>
-      <c r="FU5" s="1307"/>
-      <c r="FV5" s="1308"/>
-      <c r="FW5" s="1309"/>
-      <c r="FX5" s="1310"/>
-      <c r="FY5" s="1311"/>
-      <c r="FZ5" s="1312"/>
-      <c r="GA5" t="s" s="1313">
+      <c r="FP5" s="1326"/>
+      <c r="FQ5" s="1327"/>
+      <c r="FR5" s="1328"/>
+      <c r="FS5" s="1329"/>
+      <c r="FT5" s="1330"/>
+      <c r="FU5" s="1331"/>
+      <c r="FV5" s="1332"/>
+      <c r="FW5" s="1333"/>
+      <c r="FX5" s="1334"/>
+      <c r="FY5" s="1335"/>
+      <c r="FZ5" s="1336"/>
+      <c r="GA5" t="s" s="1337">
         <v>20</v>
       </c>
-      <c r="GB5" s="1314"/>
-      <c r="GC5" s="1315"/>
-      <c r="GD5" s="1316"/>
-      <c r="GE5" s="1317"/>
-      <c r="GF5" s="1318"/>
-      <c r="GG5" s="1319"/>
-      <c r="GH5" s="1320"/>
-      <c r="GI5" s="1321"/>
-      <c r="GJ5" s="1322"/>
-      <c r="GK5" s="1323"/>
-      <c r="GL5" s="1324"/>
-      <c r="GM5" t="s" s="1325">
+      <c r="GB5" s="1338"/>
+      <c r="GC5" s="1339"/>
+      <c r="GD5" s="1340"/>
+      <c r="GE5" s="1341"/>
+      <c r="GF5" s="1342"/>
+      <c r="GG5" s="1343"/>
+      <c r="GH5" s="1344"/>
+      <c r="GI5" s="1345"/>
+      <c r="GJ5" s="1346"/>
+      <c r="GK5" s="1347"/>
+      <c r="GL5" s="1348"/>
+      <c r="GM5" t="s" s="1349">
         <v>21</v>
       </c>
-      <c r="GN5" s="1326"/>
-      <c r="GO5" s="1327"/>
-      <c r="GP5" s="1328"/>
-      <c r="GQ5" s="1329"/>
-      <c r="GR5" s="1330"/>
-      <c r="GS5" s="1331"/>
-      <c r="GT5" s="1332"/>
-      <c r="GU5" s="1333"/>
-      <c r="GV5" s="1334"/>
-      <c r="GW5" s="1335"/>
-      <c r="GX5" s="1336"/>
-      <c r="GY5" t="s" s="1337">
+      <c r="GN5" s="1350"/>
+      <c r="GO5" s="1351"/>
+      <c r="GP5" s="1352"/>
+      <c r="GQ5" s="1353"/>
+      <c r="GR5" s="1354"/>
+      <c r="GS5" s="1355"/>
+      <c r="GT5" s="1356"/>
+      <c r="GU5" s="1357"/>
+      <c r="GV5" s="1358"/>
+      <c r="GW5" s="1359"/>
+      <c r="GX5" s="1360"/>
+      <c r="GY5" t="s" s="1361">
         <v>22</v>
       </c>
-      <c r="GZ5" s="1338"/>
-      <c r="HA5" s="1339"/>
-      <c r="HB5" s="1340"/>
-      <c r="HC5" s="1341"/>
-      <c r="HD5" s="1342"/>
-      <c r="HE5" s="1343"/>
-      <c r="HF5" s="1344"/>
-      <c r="HG5" s="1345"/>
-      <c r="HH5" s="1346"/>
-      <c r="HI5" s="1347"/>
-      <c r="HJ5" s="1348"/>
-      <c r="HK5" t="s" s="1349">
+      <c r="GZ5" s="1362"/>
+      <c r="HA5" s="1363"/>
+      <c r="HB5" s="1364"/>
+      <c r="HC5" s="1365"/>
+      <c r="HD5" s="1366"/>
+      <c r="HE5" s="1367"/>
+      <c r="HF5" s="1368"/>
+      <c r="HG5" s="1369"/>
+      <c r="HH5" s="1370"/>
+      <c r="HI5" s="1371"/>
+      <c r="HJ5" s="1372"/>
+      <c r="HK5" t="s" s="1373">
         <v>23</v>
       </c>
-      <c r="HL5" s="1350"/>
-      <c r="HM5" s="1351"/>
-      <c r="HN5" s="1352"/>
-      <c r="HO5" s="1353"/>
-      <c r="HP5" s="1354"/>
-      <c r="HQ5" s="1355"/>
-      <c r="HR5" s="1356"/>
-      <c r="HS5" s="1357"/>
-      <c r="HT5" s="1358"/>
-      <c r="HU5" s="1359"/>
-      <c r="HV5" s="1360"/>
-      <c r="HW5" t="s" s="1361">
+      <c r="HL5" s="1374"/>
+      <c r="HM5" s="1375"/>
+      <c r="HN5" s="1376"/>
+      <c r="HO5" s="1377"/>
+      <c r="HP5" s="1378"/>
+      <c r="HQ5" s="1379"/>
+      <c r="HR5" s="1380"/>
+      <c r="HS5" s="1381"/>
+      <c r="HT5" s="1382"/>
+      <c r="HU5" s="1383"/>
+      <c r="HV5" s="1384"/>
+      <c r="HW5" t="s" s="1385">
         <v>24</v>
       </c>
-      <c r="HX5" s="1362"/>
-      <c r="HY5" s="1363"/>
-      <c r="HZ5" s="1364"/>
-      <c r="IA5" s="1365"/>
-      <c r="IB5" s="1366"/>
-      <c r="IC5" s="1367"/>
-      <c r="ID5" s="1368"/>
-      <c r="IE5" s="1369"/>
-      <c r="IF5" s="1370"/>
-      <c r="IG5" s="1371"/>
-      <c r="IH5" s="1372"/>
-      <c r="II5" t="s" s="1373">
+      <c r="HX5" s="1386"/>
+      <c r="HY5" s="1387"/>
+      <c r="HZ5" s="1388"/>
+      <c r="IA5" s="1389"/>
+      <c r="IB5" s="1390"/>
+      <c r="IC5" s="1391"/>
+      <c r="ID5" s="1392"/>
+      <c r="IE5" s="1393"/>
+      <c r="IF5" s="1394"/>
+      <c r="IG5" s="1395"/>
+      <c r="IH5" s="1396"/>
+      <c r="II5" t="s" s="1397">
         <v>25</v>
       </c>
-      <c r="IJ5" s="1374"/>
-      <c r="IK5" s="1375"/>
-      <c r="IL5" s="1376"/>
-      <c r="IM5" s="1377"/>
-      <c r="IN5" s="1378"/>
-      <c r="IO5" s="1379"/>
-      <c r="IP5" s="1380"/>
-      <c r="IQ5" s="1381"/>
-      <c r="IR5" s="1382"/>
-      <c r="IS5" s="1383"/>
-      <c r="IT5" s="1384"/>
-      <c r="IU5" t="s" s="1385">
+      <c r="IJ5" s="1398"/>
+      <c r="IK5" s="1399"/>
+      <c r="IL5" s="1400"/>
+      <c r="IM5" s="1401"/>
+      <c r="IN5" s="1402"/>
+      <c r="IO5" s="1403"/>
+      <c r="IP5" s="1404"/>
+      <c r="IQ5" s="1405"/>
+      <c r="IR5" s="1406"/>
+      <c r="IS5" s="1407"/>
+      <c r="IT5" s="1408"/>
+      <c r="IU5" t="s" s="1409">
         <v>26</v>
       </c>
-      <c r="IV5" s="1386"/>
-      <c r="IW5" s="1387"/>
-      <c r="IX5" s="1388"/>
-      <c r="IY5" s="1389"/>
-      <c r="IZ5" s="1390"/>
-      <c r="JA5" s="1391"/>
-      <c r="JB5" s="1392"/>
-      <c r="JC5" s="1393"/>
-      <c r="JD5" s="1394"/>
-      <c r="JE5" s="1395"/>
-      <c r="JF5" s="1396"/>
-      <c r="JG5" t="s" s="1397">
+      <c r="IV5" s="1410"/>
+      <c r="IW5" s="1411"/>
+      <c r="IX5" s="1412"/>
+      <c r="IY5" s="1413"/>
+      <c r="IZ5" s="1414"/>
+      <c r="JA5" s="1415"/>
+      <c r="JB5" s="1416"/>
+      <c r="JC5" s="1417"/>
+      <c r="JD5" s="1418"/>
+      <c r="JE5" s="1419"/>
+      <c r="JF5" s="1420"/>
+      <c r="JG5" t="s" s="1421">
         <v>27</v>
       </c>
-      <c r="JH5" s="1398"/>
-      <c r="JI5" s="1399"/>
-      <c r="JJ5" s="1400"/>
-      <c r="JK5" s="1401"/>
-      <c r="JL5" s="1402"/>
-      <c r="JM5" s="1403"/>
-      <c r="JN5" s="1404"/>
-      <c r="JO5" s="1405"/>
-      <c r="JP5" s="1406"/>
-      <c r="JQ5" s="1407"/>
-      <c r="JR5" s="1408"/>
-      <c r="JS5" t="s" s="1409">
+      <c r="JH5" s="1422"/>
+      <c r="JI5" s="1423"/>
+      <c r="JJ5" s="1424"/>
+      <c r="JK5" s="1425"/>
+      <c r="JL5" s="1426"/>
+      <c r="JM5" s="1427"/>
+      <c r="JN5" s="1428"/>
+      <c r="JO5" s="1429"/>
+      <c r="JP5" s="1430"/>
+      <c r="JQ5" s="1431"/>
+      <c r="JR5" s="1432"/>
+      <c r="JS5" t="s" s="1433">
         <v>28</v>
       </c>
-      <c r="JT5" s="1410"/>
-      <c r="JU5" s="1411"/>
-      <c r="JV5" s="1412"/>
-      <c r="JW5" s="1413"/>
-      <c r="JX5" s="1414"/>
-      <c r="JY5" s="1415"/>
-      <c r="JZ5" s="1416"/>
-      <c r="KA5" s="1417"/>
-      <c r="KB5" s="1418"/>
-      <c r="KC5" s="1419"/>
-      <c r="KD5" s="1420"/>
-      <c r="KE5" t="s" s="1421">
+      <c r="JT5" s="1434"/>
+      <c r="JU5" s="1435"/>
+      <c r="JV5" s="1436"/>
+      <c r="JW5" s="1437"/>
+      <c r="JX5" s="1438"/>
+      <c r="JY5" s="1439"/>
+      <c r="JZ5" s="1440"/>
+      <c r="KA5" s="1441"/>
+      <c r="KB5" s="1442"/>
+      <c r="KC5" s="1443"/>
+      <c r="KD5" s="1444"/>
+      <c r="KE5" t="s" s="1445">
         <v>29</v>
       </c>
-      <c r="KF5" s="1422"/>
-      <c r="KG5" s="1423"/>
-      <c r="KH5" s="1424"/>
-      <c r="KI5" s="1425"/>
-      <c r="KJ5" s="1426"/>
-      <c r="KK5" s="1427"/>
-      <c r="KL5" s="1428"/>
-      <c r="KM5" s="1429"/>
-      <c r="KN5" s="1430"/>
-      <c r="KO5" s="1431"/>
-      <c r="KP5" s="1432"/>
-      <c r="KQ5" t="s" s="1433">
+      <c r="KF5" s="1446"/>
+      <c r="KG5" s="1447"/>
+      <c r="KH5" s="1448"/>
+      <c r="KI5" s="1449"/>
+      <c r="KJ5" s="1450"/>
+      <c r="KK5" s="1451"/>
+      <c r="KL5" s="1452"/>
+      <c r="KM5" s="1453"/>
+      <c r="KN5" s="1454"/>
+      <c r="KO5" s="1455"/>
+      <c r="KP5" s="1456"/>
+      <c r="KQ5" t="s" s="1457">
         <v>30</v>
       </c>
-      <c r="KR5" s="1434"/>
-      <c r="KS5" s="1435"/>
-      <c r="KT5" s="1436"/>
-      <c r="KU5" s="1437"/>
-      <c r="KV5" s="1438"/>
-      <c r="KW5" s="1439"/>
-      <c r="KX5" s="1440"/>
-      <c r="KY5" s="1441"/>
-      <c r="KZ5" s="1442"/>
-      <c r="LA5" s="1443"/>
-      <c r="LB5" s="1444"/>
-      <c r="LC5" t="s" s="1445">
+      <c r="KR5" s="1458"/>
+      <c r="KS5" s="1459"/>
+      <c r="KT5" s="1460"/>
+      <c r="KU5" s="1461"/>
+      <c r="KV5" s="1462"/>
+      <c r="KW5" s="1463"/>
+      <c r="KX5" s="1464"/>
+      <c r="KY5" s="1465"/>
+      <c r="KZ5" s="1466"/>
+      <c r="LA5" s="1467"/>
+      <c r="LB5" s="1468"/>
+      <c r="LC5" t="s" s="1469">
         <v>31</v>
       </c>
-      <c r="LD5" s="1446"/>
-      <c r="LE5" s="1447"/>
-      <c r="LF5" s="1448"/>
-      <c r="LG5" s="1449"/>
-      <c r="LH5" s="1450"/>
-      <c r="LI5" s="1451"/>
-      <c r="LJ5" s="1452"/>
-      <c r="LK5" s="1453"/>
-      <c r="LL5" s="1454"/>
-      <c r="LM5" s="1455"/>
-      <c r="LN5" s="1456"/>
-      <c r="LO5" t="s" s="1457">
+      <c r="LD5" s="1470"/>
+      <c r="LE5" s="1471"/>
+      <c r="LF5" s="1472"/>
+      <c r="LG5" s="1473"/>
+      <c r="LH5" s="1474"/>
+      <c r="LI5" s="1475"/>
+      <c r="LJ5" s="1476"/>
+      <c r="LK5" s="1477"/>
+      <c r="LL5" s="1478"/>
+      <c r="LM5" s="1479"/>
+      <c r="LN5" s="1480"/>
+      <c r="LO5" t="s" s="1481">
         <v>32</v>
       </c>
-      <c r="LP5" s="1458"/>
-      <c r="LQ5" s="1459"/>
-      <c r="LR5" s="1460"/>
-      <c r="LS5" s="1461"/>
-      <c r="LT5" s="1462"/>
-      <c r="LU5" s="1463"/>
-      <c r="LV5" s="1464"/>
-      <c r="LW5" s="1465"/>
-      <c r="LX5" s="1466"/>
-      <c r="LY5" s="1467"/>
-      <c r="LZ5" s="1468"/>
-      <c r="MA5" t="s" s="1469">
+      <c r="LP5" s="1482"/>
+      <c r="LQ5" s="1483"/>
+      <c r="LR5" s="1484"/>
+      <c r="LS5" s="1485"/>
+      <c r="LT5" s="1486"/>
+      <c r="LU5" s="1487"/>
+      <c r="LV5" s="1488"/>
+      <c r="LW5" s="1489"/>
+      <c r="LX5" s="1490"/>
+      <c r="LY5" s="1491"/>
+      <c r="LZ5" s="1492"/>
+      <c r="MA5" t="s" s="1493">
         <v>33</v>
       </c>
-      <c r="MB5" s="1470"/>
-      <c r="MC5" s="1471"/>
-      <c r="MD5" s="1472"/>
-      <c r="ME5" s="1473"/>
-      <c r="MF5" s="1474"/>
-      <c r="MG5" s="1475"/>
-      <c r="MH5" s="1476"/>
-      <c r="MI5" s="1477"/>
-      <c r="MJ5" s="1478"/>
-      <c r="MK5" s="1479"/>
-      <c r="ML5" s="1480"/>
-      <c r="MM5" t="s" s="1481">
+      <c r="MB5" s="1494"/>
+      <c r="MC5" s="1495"/>
+      <c r="MD5" s="1496"/>
+      <c r="ME5" s="1497"/>
+      <c r="MF5" s="1498"/>
+      <c r="MG5" s="1499"/>
+      <c r="MH5" s="1500"/>
+      <c r="MI5" s="1501"/>
+      <c r="MJ5" s="1502"/>
+      <c r="MK5" s="1503"/>
+      <c r="ML5" s="1504"/>
+      <c r="MM5" t="s" s="1505">
         <v>34</v>
       </c>
-      <c r="MN5" s="1482"/>
-      <c r="MO5" s="1483"/>
-      <c r="MP5" s="1484"/>
-      <c r="MQ5" s="1485"/>
-      <c r="MR5" s="1486"/>
-      <c r="MS5" s="1487"/>
-      <c r="MT5" s="1488"/>
-      <c r="MU5" s="1489"/>
-      <c r="MV5" s="1490"/>
-      <c r="MW5" s="1491"/>
-      <c r="MX5" s="1492"/>
-      <c r="MY5" t="s" s="1493">
+      <c r="MN5" s="1506"/>
+      <c r="MO5" s="1507"/>
+      <c r="MP5" s="1508"/>
+      <c r="MQ5" s="1509"/>
+      <c r="MR5" s="1510"/>
+      <c r="MS5" s="1511"/>
+      <c r="MT5" s="1512"/>
+      <c r="MU5" s="1513"/>
+      <c r="MV5" s="1514"/>
+      <c r="MW5" s="1515"/>
+      <c r="MX5" s="1516"/>
+      <c r="MY5" t="s" s="1517">
         <v>35</v>
       </c>
-      <c r="MZ5" s="1494"/>
-      <c r="NA5" s="1495"/>
-      <c r="NB5" s="1496"/>
-      <c r="NC5" s="1497"/>
-      <c r="ND5" s="1498"/>
-      <c r="NE5" s="1499"/>
-      <c r="NF5" s="1500"/>
-      <c r="NG5" s="1501"/>
-      <c r="NH5" s="1502"/>
-      <c r="NI5" s="1503"/>
-      <c r="NJ5" s="1504"/>
-      <c r="NK5" t="s" s="1505">
+      <c r="MZ5" s="1518"/>
+      <c r="NA5" s="1519"/>
+      <c r="NB5" s="1520"/>
+      <c r="NC5" s="1521"/>
+      <c r="ND5" s="1522"/>
+      <c r="NE5" s="1523"/>
+      <c r="NF5" s="1524"/>
+      <c r="NG5" s="1525"/>
+      <c r="NH5" s="1526"/>
+      <c r="NI5" s="1527"/>
+      <c r="NJ5" s="1528"/>
+      <c r="NK5" t="s" s="1529">
         <v>36</v>
       </c>
-      <c r="NL5" s="1506"/>
-      <c r="NM5" s="1507"/>
-      <c r="NN5" s="1508"/>
-      <c r="NO5" s="1509"/>
-      <c r="NP5" s="1510"/>
-      <c r="NQ5" s="1511"/>
-      <c r="NR5" s="1512"/>
-      <c r="NS5" s="1513"/>
-      <c r="NT5" s="1514"/>
-      <c r="NU5" s="1515"/>
-      <c r="NV5" s="1516"/>
-      <c r="NW5" t="s" s="1517">
+      <c r="NL5" s="1530"/>
+      <c r="NM5" s="1531"/>
+      <c r="NN5" s="1532"/>
+      <c r="NO5" s="1533"/>
+      <c r="NP5" s="1534"/>
+      <c r="NQ5" s="1535"/>
+      <c r="NR5" s="1536"/>
+      <c r="NS5" s="1537"/>
+      <c r="NT5" s="1538"/>
+      <c r="NU5" s="1539"/>
+      <c r="NV5" s="1540"/>
+      <c r="NW5" t="s" s="1541">
         <v>37</v>
       </c>
-      <c r="NX5" s="1518"/>
-      <c r="NY5" s="1519"/>
-      <c r="NZ5" s="1520"/>
-      <c r="OA5" s="1521"/>
-      <c r="OB5" s="1522"/>
-      <c r="OC5" s="1523"/>
-      <c r="OD5" s="1524"/>
-      <c r="OE5" s="1525"/>
-      <c r="OF5" s="1526"/>
-      <c r="OG5" s="1527"/>
-      <c r="OH5" s="1528"/>
-      <c r="OI5" t="s" s="1529">
+      <c r="NX5" s="1542"/>
+      <c r="NY5" s="1543"/>
+      <c r="NZ5" s="1544"/>
+      <c r="OA5" s="1545"/>
+      <c r="OB5" s="1546"/>
+      <c r="OC5" s="1547"/>
+      <c r="OD5" s="1548"/>
+      <c r="OE5" s="1549"/>
+      <c r="OF5" s="1550"/>
+      <c r="OG5" s="1551"/>
+      <c r="OH5" s="1552"/>
+      <c r="OI5" t="s" s="1553">
         <v>38</v>
       </c>
-      <c r="OJ5" s="1530"/>
-      <c r="OK5" s="1531"/>
-      <c r="OL5" s="1532"/>
-      <c r="OM5" s="1533"/>
-      <c r="ON5" s="1534"/>
-      <c r="OO5" s="1535"/>
-      <c r="OP5" s="1536"/>
-      <c r="OQ5" s="1537"/>
-      <c r="OR5" s="1538"/>
-      <c r="OS5" s="1539"/>
-      <c r="OT5" s="1540"/>
-      <c r="OU5" t="s" s="1541">
+      <c r="OJ5" s="1554"/>
+      <c r="OK5" s="1555"/>
+      <c r="OL5" s="1556"/>
+      <c r="OM5" s="1557"/>
+      <c r="ON5" s="1558"/>
+      <c r="OO5" s="1559"/>
+      <c r="OP5" s="1560"/>
+      <c r="OQ5" s="1561"/>
+      <c r="OR5" s="1562"/>
+      <c r="OS5" s="1563"/>
+      <c r="OT5" s="1564"/>
+      <c r="OU5" t="s" s="1565">
         <v>39</v>
       </c>
-      <c r="OV5" s="1542"/>
-      <c r="OW5" s="1543"/>
-      <c r="OX5" s="1544"/>
-      <c r="OY5" s="1545"/>
-      <c r="OZ5" s="1546"/>
-      <c r="PA5" s="1547"/>
-      <c r="PB5" s="1548"/>
-      <c r="PC5" s="1549"/>
-      <c r="PD5" s="1550"/>
-      <c r="PE5" s="1551"/>
-      <c r="PF5" s="1552"/>
-      <c r="PG5" t="s" s="1553">
+      <c r="OV5" s="1566"/>
+      <c r="OW5" s="1567"/>
+      <c r="OX5" s="1568"/>
+      <c r="OY5" s="1569"/>
+      <c r="OZ5" s="1570"/>
+      <c r="PA5" s="1571"/>
+      <c r="PB5" s="1572"/>
+      <c r="PC5" s="1573"/>
+      <c r="PD5" s="1574"/>
+      <c r="PE5" s="1575"/>
+      <c r="PF5" s="1576"/>
+      <c r="PG5" t="s" s="1577">
         <v>40</v>
       </c>
-      <c r="PH5" s="1554"/>
-      <c r="PI5" s="1555"/>
-      <c r="PJ5" s="1556"/>
-      <c r="PK5" s="1557"/>
-      <c r="PL5" s="1558"/>
-      <c r="PM5" s="1559"/>
-      <c r="PN5" s="1560"/>
-      <c r="PO5" s="1561"/>
-      <c r="PP5" s="1562"/>
-      <c r="PQ5" s="1563"/>
-      <c r="PR5" s="1564"/>
-      <c r="PS5" t="s" s="1565">
+      <c r="PH5" s="1578"/>
+      <c r="PI5" s="1579"/>
+      <c r="PJ5" s="1580"/>
+      <c r="PK5" s="1581"/>
+      <c r="PL5" s="1582"/>
+      <c r="PM5" s="1583"/>
+      <c r="PN5" s="1584"/>
+      <c r="PO5" s="1585"/>
+      <c r="PP5" s="1586"/>
+      <c r="PQ5" s="1587"/>
+      <c r="PR5" s="1588"/>
+      <c r="PS5" t="s" s="1589">
         <v>41</v>
       </c>
-      <c r="PT5" s="1566"/>
-      <c r="PU5" s="1567"/>
-      <c r="PV5" s="1568"/>
-      <c r="PW5" s="1569"/>
-      <c r="PX5" s="1570"/>
-      <c r="PY5" s="1571"/>
-      <c r="PZ5" s="1572"/>
-      <c r="QA5" s="1573"/>
-      <c r="QB5" s="1574"/>
-      <c r="QC5" s="1575"/>
-      <c r="QD5" s="1576"/>
-      <c r="QE5" t="s" s="1577">
+      <c r="PT5" s="1590"/>
+      <c r="PU5" s="1591"/>
+      <c r="PV5" s="1592"/>
+      <c r="PW5" s="1593"/>
+      <c r="PX5" s="1594"/>
+      <c r="PY5" s="1595"/>
+      <c r="PZ5" s="1596"/>
+      <c r="QA5" s="1597"/>
+      <c r="QB5" s="1598"/>
+      <c r="QC5" s="1599"/>
+      <c r="QD5" s="1600"/>
+      <c r="QE5" t="s" s="1601">
         <v>42</v>
       </c>
-      <c r="QF5" s="1578"/>
-      <c r="QG5" s="1579"/>
-      <c r="QH5" s="1580"/>
-      <c r="QI5" s="1581"/>
-      <c r="QJ5" s="1582"/>
-      <c r="QK5" s="1583"/>
-      <c r="QL5" s="1584"/>
-      <c r="QM5" s="1585"/>
-      <c r="QN5" s="1586"/>
-      <c r="QO5" s="1587"/>
-      <c r="QP5" s="1588"/>
-      <c r="QQ5" t="s" s="1589">
+      <c r="QF5" s="1602"/>
+      <c r="QG5" s="1603"/>
+      <c r="QH5" s="1604"/>
+      <c r="QI5" s="1605"/>
+      <c r="QJ5" s="1606"/>
+      <c r="QK5" s="1607"/>
+      <c r="QL5" s="1608"/>
+      <c r="QM5" s="1609"/>
+      <c r="QN5" s="1610"/>
+      <c r="QO5" s="1611"/>
+      <c r="QP5" s="1612"/>
+      <c r="QQ5" t="s" s="1613">
         <v>43</v>
       </c>
-      <c r="QR5" s="1590"/>
-      <c r="QS5" s="1591"/>
-      <c r="QT5" s="1592"/>
-      <c r="QU5" s="1593"/>
-      <c r="QV5" s="1594"/>
-      <c r="QW5" s="1595"/>
-      <c r="QX5" s="1596"/>
-      <c r="QY5" s="1597"/>
-      <c r="QZ5" s="1598"/>
-      <c r="RA5" s="1599"/>
-      <c r="RB5" s="1600"/>
-      <c r="RC5" t="s" s="1601">
+      <c r="QR5" s="1614"/>
+      <c r="QS5" s="1615"/>
+      <c r="QT5" s="1616"/>
+      <c r="QU5" s="1617"/>
+      <c r="QV5" s="1618"/>
+      <c r="QW5" s="1619"/>
+      <c r="QX5" s="1620"/>
+      <c r="QY5" s="1621"/>
+      <c r="QZ5" s="1622"/>
+      <c r="RA5" s="1623"/>
+      <c r="RB5" s="1624"/>
+      <c r="RC5" t="s" s="1625">
         <v>44</v>
       </c>
-      <c r="RD5" s="1602"/>
-      <c r="RE5" s="1603"/>
-      <c r="RF5" s="1604"/>
-      <c r="RG5" s="1605"/>
-      <c r="RH5" s="1606"/>
-      <c r="RI5" s="1607"/>
-      <c r="RJ5" s="1608"/>
-      <c r="RK5" s="1609"/>
-      <c r="RL5" s="1610"/>
-      <c r="RM5" s="1611"/>
-      <c r="RN5" s="1612"/>
-      <c r="RO5" t="s" s="1613">
+      <c r="RD5" s="1626"/>
+      <c r="RE5" s="1627"/>
+      <c r="RF5" s="1628"/>
+      <c r="RG5" s="1629"/>
+      <c r="RH5" s="1630"/>
+      <c r="RI5" s="1631"/>
+      <c r="RJ5" s="1632"/>
+      <c r="RK5" s="1633"/>
+      <c r="RL5" s="1634"/>
+      <c r="RM5" s="1635"/>
+      <c r="RN5" s="1636"/>
+      <c r="RO5" t="s" s="1637">
         <v>45</v>
       </c>
-      <c r="RP5" s="1614"/>
-      <c r="RQ5" s="1615"/>
-      <c r="RR5" s="1616"/>
-      <c r="RS5" s="1617"/>
-      <c r="RT5" s="1618"/>
-      <c r="RU5" s="1619"/>
-      <c r="RV5" s="1620"/>
-      <c r="RW5" s="1621"/>
-      <c r="RX5" s="1622"/>
-      <c r="RY5" s="1623"/>
-      <c r="RZ5" s="1624"/>
-      <c r="SA5" t="s" s="1625">
+      <c r="RP5" s="1638"/>
+      <c r="RQ5" s="1639"/>
+      <c r="RR5" s="1640"/>
+      <c r="RS5" s="1641"/>
+      <c r="RT5" s="1642"/>
+      <c r="RU5" s="1643"/>
+      <c r="RV5" s="1644"/>
+      <c r="RW5" s="1645"/>
+      <c r="RX5" s="1646"/>
+      <c r="RY5" s="1647"/>
+      <c r="RZ5" s="1648"/>
+      <c r="SA5" t="s" s="1649">
         <v>46</v>
       </c>
-      <c r="SB5" s="1626"/>
-      <c r="SC5" s="1627"/>
-      <c r="SD5" s="1628"/>
-      <c r="SE5" s="1629"/>
-      <c r="SF5" s="1630"/>
-      <c r="SG5" s="1631"/>
-      <c r="SH5" s="1632"/>
-      <c r="SI5" s="1633"/>
-      <c r="SJ5" s="1634"/>
-      <c r="SK5" s="1635"/>
-      <c r="SL5" s="1636"/>
-      <c r="SM5" t="s" s="1637">
+      <c r="SB5" s="1650"/>
+      <c r="SC5" s="1651"/>
+      <c r="SD5" s="1652"/>
+      <c r="SE5" s="1653"/>
+      <c r="SF5" s="1654"/>
+      <c r="SG5" s="1655"/>
+      <c r="SH5" s="1656"/>
+      <c r="SI5" s="1657"/>
+      <c r="SJ5" s="1658"/>
+      <c r="SK5" s="1659"/>
+      <c r="SL5" s="1660"/>
+      <c r="SM5" t="s" s="1661">
         <v>47</v>
       </c>
-      <c r="SN5" s="1638"/>
-      <c r="SO5" s="1639"/>
-      <c r="SP5" s="1640"/>
-      <c r="SQ5" s="1641"/>
-      <c r="SR5" s="1642"/>
-      <c r="SS5" s="1643"/>
-      <c r="ST5" s="1644"/>
-      <c r="SU5" s="1645"/>
-      <c r="SV5" s="1646"/>
-      <c r="SW5" s="1647"/>
-      <c r="SX5" s="1648"/>
-      <c r="SY5" t="s" s="1649">
+      <c r="SN5" s="1662"/>
+      <c r="SO5" s="1663"/>
+      <c r="SP5" s="1664"/>
+      <c r="SQ5" s="1665"/>
+      <c r="SR5" s="1666"/>
+      <c r="SS5" s="1667"/>
+      <c r="ST5" s="1668"/>
+      <c r="SU5" s="1669"/>
+      <c r="SV5" s="1670"/>
+      <c r="SW5" s="1671"/>
+      <c r="SX5" s="1672"/>
+      <c r="SY5" t="s" s="1673">
         <v>48</v>
       </c>
-      <c r="SZ5" s="1650"/>
-      <c r="TA5" s="1651"/>
-      <c r="TB5" s="1652"/>
-      <c r="TC5" s="1653"/>
-      <c r="TD5" s="1654"/>
-      <c r="TE5" s="1655"/>
-      <c r="TF5" s="1656"/>
-      <c r="TG5" s="1657"/>
-      <c r="TH5" s="1658"/>
-      <c r="TI5" s="1659"/>
-      <c r="TJ5" s="1660"/>
-      <c r="TK5" t="s" s="1661">
+      <c r="SZ5" s="1674"/>
+      <c r="TA5" s="1675"/>
+      <c r="TB5" s="1676"/>
+      <c r="TC5" s="1677"/>
+      <c r="TD5" s="1678"/>
+      <c r="TE5" s="1679"/>
+      <c r="TF5" s="1680"/>
+      <c r="TG5" s="1681"/>
+      <c r="TH5" s="1682"/>
+      <c r="TI5" s="1683"/>
+      <c r="TJ5" s="1684"/>
+      <c r="TK5" t="s" s="1685">
         <v>49</v>
       </c>
-      <c r="TL5" s="1662"/>
-      <c r="TM5" s="1663"/>
-      <c r="TN5" s="1664"/>
-      <c r="TO5" s="1665"/>
-      <c r="TP5" s="1666"/>
-      <c r="TQ5" s="1667"/>
-      <c r="TR5" s="1668"/>
-      <c r="TS5" s="1669"/>
-      <c r="TT5" s="1670"/>
-      <c r="TU5" s="1671"/>
-      <c r="TV5" s="1672"/>
-      <c r="TW5" t="s" s="1673">
+      <c r="TL5" s="1686"/>
+      <c r="TM5" s="1687"/>
+      <c r="TN5" s="1688"/>
+      <c r="TO5" s="1689"/>
+      <c r="TP5" s="1690"/>
+      <c r="TQ5" s="1691"/>
+      <c r="TR5" s="1692"/>
+      <c r="TS5" s="1693"/>
+      <c r="TT5" s="1694"/>
+      <c r="TU5" s="1695"/>
+      <c r="TV5" s="1696"/>
+      <c r="TW5" t="s" s="1697">
         <v>50</v>
       </c>
-      <c r="TX5" s="1674"/>
-      <c r="TY5" s="1675"/>
-      <c r="TZ5" s="1676"/>
-      <c r="UA5" s="1677"/>
-      <c r="UB5" s="1678"/>
-      <c r="UC5" s="1679"/>
-      <c r="UD5" s="1680"/>
-      <c r="UE5" s="1681"/>
-      <c r="UF5" s="1682"/>
-      <c r="UG5" s="1683"/>
-      <c r="UH5" s="1684"/>
+      <c r="TX5" s="1698"/>
+      <c r="TY5" s="1699"/>
+      <c r="TZ5" s="1700"/>
+      <c r="UA5" s="1701"/>
+      <c r="UB5" s="1702"/>
+      <c r="UC5" s="1703"/>
+      <c r="UD5" s="1704"/>
+      <c r="UE5" s="1705"/>
+      <c r="UF5" s="1706"/>
+      <c r="UG5" s="1707"/>
+      <c r="UH5" s="1708"/>
+      <c r="UI5" t="s" s="1709">
+        <v>51</v>
+      </c>
+      <c r="UJ5" s="1710"/>
+      <c r="UK5" s="1711"/>
+      <c r="UL5" s="1712"/>
+      <c r="UM5" s="1713"/>
+      <c r="UN5" s="1714"/>
+      <c r="UO5" s="1715"/>
+      <c r="UP5" s="1716"/>
+      <c r="UQ5" s="1717"/>
+      <c r="UR5" s="1718"/>
+      <c r="US5" s="1719"/>
+      <c r="UT5" s="1720"/>
     </row>
     <row r="6">
-      <c r="A6" s="1685"/>
-      <c r="B6" s="1686"/>
-      <c r="C6" t="s" s="1687">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s" s="1688">
+      <c r="A6" s="1721"/>
+      <c r="B6" s="1722"/>
+      <c r="C6" t="s" s="1723">
         <v>52</v>
       </c>
-      <c r="E6" t="s" s="1689">
+      <c r="D6" t="s" s="1724">
         <v>53</v>
       </c>
-      <c r="F6" t="s" s="1690">
+      <c r="E6" t="s" s="1725">
         <v>54</v>
       </c>
-      <c r="G6" t="s" s="1691">
+      <c r="F6" t="s" s="1726">
         <v>55</v>
       </c>
-      <c r="H6" t="s" s="1692">
+      <c r="G6" t="s" s="1727">
         <v>56</v>
       </c>
-      <c r="I6" t="s" s="1693">
+      <c r="H6" t="s" s="1728">
         <v>57</v>
       </c>
-      <c r="J6" t="s" s="1694">
+      <c r="I6" t="s" s="1729">
         <v>58</v>
       </c>
-      <c r="K6" t="s" s="1695">
+      <c r="J6" t="s" s="1730">
         <v>59</v>
       </c>
-      <c r="L6" t="s" s="1696">
+      <c r="K6" t="s" s="1731">
         <v>60</v>
       </c>
-      <c r="M6" t="s" s="1697">
+      <c r="L6" t="s" s="1732">
         <v>61</v>
       </c>
-      <c r="N6" t="s" s="1698">
+      <c r="M6" t="s" s="1733">
         <v>62</v>
       </c>
-      <c r="O6" t="s" s="1699">
-        <v>51</v>
-      </c>
-      <c r="P6" t="s" s="1700">
+      <c r="N6" t="s" s="1734">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s" s="1735">
         <v>52</v>
       </c>
-      <c r="Q6" t="s" s="1701">
+      <c r="P6" t="s" s="1736">
         <v>53</v>
       </c>
-      <c r="R6" t="s" s="1702">
+      <c r="Q6" t="s" s="1737">
         <v>54</v>
       </c>
-      <c r="S6" t="s" s="1703">
+      <c r="R6" t="s" s="1738">
         <v>55</v>
       </c>
-      <c r="T6" t="s" s="1704">
+      <c r="S6" t="s" s="1739">
         <v>56</v>
       </c>
-      <c r="U6" t="s" s="1705">
+      <c r="T6" t="s" s="1740">
         <v>57</v>
       </c>
-      <c r="V6" t="s" s="1706">
+      <c r="U6" t="s" s="1741">
         <v>58</v>
       </c>
-      <c r="W6" t="s" s="1707">
+      <c r="V6" t="s" s="1742">
         <v>59</v>
       </c>
-      <c r="X6" t="s" s="1708">
+      <c r="W6" t="s" s="1743">
         <v>60</v>
       </c>
-      <c r="Y6" t="s" s="1709">
+      <c r="X6" t="s" s="1744">
         <v>61</v>
       </c>
-      <c r="Z6" t="s" s="1710">
+      <c r="Y6" t="s" s="1745">
         <v>62</v>
       </c>
-      <c r="AA6" t="s" s="1711">
-        <v>51</v>
-      </c>
-      <c r="AB6" t="s" s="1712">
+      <c r="Z6" t="s" s="1746">
+        <v>63</v>
+      </c>
+      <c r="AA6" t="s" s="1747">
         <v>52</v>
       </c>
-      <c r="AC6" t="s" s="1713">
+      <c r="AB6" t="s" s="1748">
         <v>53</v>
       </c>
-      <c r="AD6" t="s" s="1714">
+      <c r="AC6" t="s" s="1749">
         <v>54</v>
       </c>
-      <c r="AE6" t="s" s="1715">
+      <c r="AD6" t="s" s="1750">
         <v>55</v>
       </c>
-      <c r="AF6" t="s" s="1716">
+      <c r="AE6" t="s" s="1751">
         <v>56</v>
       </c>
-      <c r="AG6" t="s" s="1717">
+      <c r="AF6" t="s" s="1752">
         <v>57</v>
       </c>
-      <c r="AH6" t="s" s="1718">
+      <c r="AG6" t="s" s="1753">
         <v>58</v>
       </c>
-      <c r="AI6" t="s" s="1719">
+      <c r="AH6" t="s" s="1754">
         <v>59</v>
       </c>
-      <c r="AJ6" t="s" s="1720">
+      <c r="AI6" t="s" s="1755">
         <v>60</v>
       </c>
-      <c r="AK6" t="s" s="1721">
+      <c r="AJ6" t="s" s="1756">
         <v>61</v>
       </c>
-      <c r="AL6" t="s" s="1722">
+      <c r="AK6" t="s" s="1757">
         <v>62</v>
       </c>
-      <c r="AM6" t="s" s="1723">
-        <v>51</v>
-      </c>
-      <c r="AN6" t="s" s="1724">
+      <c r="AL6" t="s" s="1758">
+        <v>63</v>
+      </c>
+      <c r="AM6" t="s" s="1759">
         <v>52</v>
       </c>
-      <c r="AO6" t="s" s="1725">
+      <c r="AN6" t="s" s="1760">
         <v>53</v>
       </c>
-      <c r="AP6" t="s" s="1726">
+      <c r="AO6" t="s" s="1761">
         <v>54</v>
       </c>
-      <c r="AQ6" t="s" s="1727">
+      <c r="AP6" t="s" s="1762">
         <v>55</v>
       </c>
-      <c r="AR6" t="s" s="1728">
+      <c r="AQ6" t="s" s="1763">
         <v>56</v>
       </c>
-      <c r="AS6" t="s" s="1729">
+      <c r="AR6" t="s" s="1764">
         <v>57</v>
       </c>
-      <c r="AT6" t="s" s="1730">
+      <c r="AS6" t="s" s="1765">
         <v>58</v>
       </c>
-      <c r="AU6" t="s" s="1731">
+      <c r="AT6" t="s" s="1766">
         <v>59</v>
       </c>
-      <c r="AV6" t="s" s="1732">
+      <c r="AU6" t="s" s="1767">
         <v>60</v>
       </c>
-      <c r="AW6" t="s" s="1733">
+      <c r="AV6" t="s" s="1768">
         <v>61</v>
       </c>
-      <c r="AX6" t="s" s="1734">
+      <c r="AW6" t="s" s="1769">
         <v>62</v>
       </c>
-      <c r="AY6" t="s" s="1735">
-        <v>51</v>
-      </c>
-      <c r="AZ6" t="s" s="1736">
+      <c r="AX6" t="s" s="1770">
+        <v>63</v>
+      </c>
+      <c r="AY6" t="s" s="1771">
         <v>52</v>
       </c>
-      <c r="BA6" t="s" s="1737">
+      <c r="AZ6" t="s" s="1772">
         <v>53</v>
       </c>
-      <c r="BB6" t="s" s="1738">
+      <c r="BA6" t="s" s="1773">
         <v>54</v>
       </c>
-      <c r="BC6" t="s" s="1739">
+      <c r="BB6" t="s" s="1774">
         <v>55</v>
       </c>
-      <c r="BD6" t="s" s="1740">
+      <c r="BC6" t="s" s="1775">
         <v>56</v>
       </c>
-      <c r="BE6" t="s" s="1741">
+      <c r="BD6" t="s" s="1776">
         <v>57</v>
       </c>
-      <c r="BF6" t="s" s="1742">
+      <c r="BE6" t="s" s="1777">
         <v>58</v>
       </c>
-      <c r="BG6" t="s" s="1743">
+      <c r="BF6" t="s" s="1778">
         <v>59</v>
       </c>
-      <c r="BH6" t="s" s="1744">
+      <c r="BG6" t="s" s="1779">
         <v>60</v>
       </c>
-      <c r="BI6" t="s" s="1745">
+      <c r="BH6" t="s" s="1780">
         <v>61</v>
       </c>
-      <c r="BJ6" t="s" s="1746">
+      <c r="BI6" t="s" s="1781">
         <v>62</v>
       </c>
-      <c r="BK6" t="s" s="1747">
-        <v>51</v>
-      </c>
-      <c r="BL6" t="s" s="1748">
+      <c r="BJ6" t="s" s="1782">
+        <v>63</v>
+      </c>
+      <c r="BK6" t="s" s="1783">
         <v>52</v>
       </c>
-      <c r="BM6" t="s" s="1749">
+      <c r="BL6" t="s" s="1784">
         <v>53</v>
       </c>
-      <c r="BN6" t="s" s="1750">
+      <c r="BM6" t="s" s="1785">
         <v>54</v>
       </c>
-      <c r="BO6" t="s" s="1751">
+      <c r="BN6" t="s" s="1786">
         <v>55</v>
       </c>
-      <c r="BP6" t="s" s="1752">
+      <c r="BO6" t="s" s="1787">
         <v>56</v>
       </c>
-      <c r="BQ6" t="s" s="1753">
+      <c r="BP6" t="s" s="1788">
         <v>57</v>
       </c>
-      <c r="BR6" t="s" s="1754">
+      <c r="BQ6" t="s" s="1789">
         <v>58</v>
       </c>
-      <c r="BS6" t="s" s="1755">
+      <c r="BR6" t="s" s="1790">
         <v>59</v>
       </c>
-      <c r="BT6" t="s" s="1756">
+      <c r="BS6" t="s" s="1791">
         <v>60</v>
       </c>
-      <c r="BU6" t="s" s="1757">
+      <c r="BT6" t="s" s="1792">
         <v>61</v>
       </c>
-      <c r="BV6" t="s" s="1758">
+      <c r="BU6" t="s" s="1793">
         <v>62</v>
       </c>
-      <c r="BW6" t="s" s="1759">
-        <v>51</v>
-      </c>
-      <c r="BX6" t="s" s="1760">
+      <c r="BV6" t="s" s="1794">
+        <v>63</v>
+      </c>
+      <c r="BW6" t="s" s="1795">
         <v>52</v>
       </c>
-      <c r="BY6" t="s" s="1761">
+      <c r="BX6" t="s" s="1796">
         <v>53</v>
       </c>
-      <c r="BZ6" t="s" s="1762">
+      <c r="BY6" t="s" s="1797">
         <v>54</v>
       </c>
-      <c r="CA6" t="s" s="1763">
+      <c r="BZ6" t="s" s="1798">
         <v>55</v>
       </c>
-      <c r="CB6" t="s" s="1764">
+      <c r="CA6" t="s" s="1799">
         <v>56</v>
       </c>
-      <c r="CC6" t="s" s="1765">
+      <c r="CB6" t="s" s="1800">
         <v>57</v>
       </c>
-      <c r="CD6" t="s" s="1766">
+      <c r="CC6" t="s" s="1801">
         <v>58</v>
       </c>
-      <c r="CE6" t="s" s="1767">
+      <c r="CD6" t="s" s="1802">
         <v>59</v>
       </c>
-      <c r="CF6" t="s" s="1768">
+      <c r="CE6" t="s" s="1803">
         <v>60</v>
       </c>
-      <c r="CG6" t="s" s="1769">
+      <c r="CF6" t="s" s="1804">
         <v>61</v>
       </c>
-      <c r="CH6" t="s" s="1770">
+      <c r="CG6" t="s" s="1805">
         <v>62</v>
       </c>
-      <c r="CI6" t="s" s="1771">
-        <v>51</v>
-      </c>
-      <c r="CJ6" t="s" s="1772">
+      <c r="CH6" t="s" s="1806">
+        <v>63</v>
+      </c>
+      <c r="CI6" t="s" s="1807">
         <v>52</v>
       </c>
-      <c r="CK6" t="s" s="1773">
+      <c r="CJ6" t="s" s="1808">
         <v>53</v>
       </c>
-      <c r="CL6" t="s" s="1774">
+      <c r="CK6" t="s" s="1809">
         <v>54</v>
       </c>
-      <c r="CM6" t="s" s="1775">
+      <c r="CL6" t="s" s="1810">
         <v>55</v>
       </c>
-      <c r="CN6" t="s" s="1776">
+      <c r="CM6" t="s" s="1811">
         <v>56</v>
       </c>
-      <c r="CO6" t="s" s="1777">
+      <c r="CN6" t="s" s="1812">
         <v>57</v>
       </c>
-      <c r="CP6" t="s" s="1778">
+      <c r="CO6" t="s" s="1813">
         <v>58</v>
       </c>
-      <c r="CQ6" t="s" s="1779">
+      <c r="CP6" t="s" s="1814">
         <v>59</v>
       </c>
-      <c r="CR6" t="s" s="1780">
+      <c r="CQ6" t="s" s="1815">
         <v>60</v>
       </c>
-      <c r="CS6" t="s" s="1781">
+      <c r="CR6" t="s" s="1816">
         <v>61</v>
       </c>
-      <c r="CT6" t="s" s="1782">
+      <c r="CS6" t="s" s="1817">
         <v>62</v>
       </c>
-      <c r="CU6" t="s" s="1783">
-        <v>51</v>
-      </c>
-      <c r="CV6" t="s" s="1784">
+      <c r="CT6" t="s" s="1818">
+        <v>63</v>
+      </c>
+      <c r="CU6" t="s" s="1819">
         <v>52</v>
       </c>
-      <c r="CW6" t="s" s="1785">
+      <c r="CV6" t="s" s="1820">
         <v>53</v>
       </c>
-      <c r="CX6" t="s" s="1786">
+      <c r="CW6" t="s" s="1821">
         <v>54</v>
       </c>
-      <c r="CY6" t="s" s="1787">
+      <c r="CX6" t="s" s="1822">
         <v>55</v>
       </c>
-      <c r="CZ6" t="s" s="1788">
+      <c r="CY6" t="s" s="1823">
         <v>56</v>
       </c>
-      <c r="DA6" t="s" s="1789">
+      <c r="CZ6" t="s" s="1824">
         <v>57</v>
       </c>
-      <c r="DB6" t="s" s="1790">
+      <c r="DA6" t="s" s="1825">
         <v>58</v>
       </c>
-      <c r="DC6" t="s" s="1791">
+      <c r="DB6" t="s" s="1826">
         <v>59</v>
       </c>
-      <c r="DD6" t="s" s="1792">
+      <c r="DC6" t="s" s="1827">
         <v>60</v>
       </c>
-      <c r="DE6" t="s" s="1793">
+      <c r="DD6" t="s" s="1828">
         <v>61</v>
       </c>
-      <c r="DF6" t="s" s="1794">
+      <c r="DE6" t="s" s="1829">
         <v>62</v>
       </c>
-      <c r="DG6" t="s" s="1795">
-        <v>51</v>
-      </c>
-      <c r="DH6" t="s" s="1796">
+      <c r="DF6" t="s" s="1830">
+        <v>63</v>
+      </c>
+      <c r="DG6" t="s" s="1831">
         <v>52</v>
       </c>
-      <c r="DI6" t="s" s="1797">
+      <c r="DH6" t="s" s="1832">
         <v>53</v>
       </c>
-      <c r="DJ6" t="s" s="1798">
+      <c r="DI6" t="s" s="1833">
         <v>54</v>
       </c>
-      <c r="DK6" t="s" s="1799">
+      <c r="DJ6" t="s" s="1834">
         <v>55</v>
       </c>
-      <c r="DL6" t="s" s="1800">
+      <c r="DK6" t="s" s="1835">
         <v>56</v>
       </c>
-      <c r="DM6" t="s" s="1801">
+      <c r="DL6" t="s" s="1836">
         <v>57</v>
       </c>
-      <c r="DN6" t="s" s="1802">
+      <c r="DM6" t="s" s="1837">
         <v>58</v>
       </c>
-      <c r="DO6" t="s" s="1803">
+      <c r="DN6" t="s" s="1838">
         <v>59</v>
       </c>
-      <c r="DP6" t="s" s="1804">
+      <c r="DO6" t="s" s="1839">
         <v>60</v>
       </c>
-      <c r="DQ6" t="s" s="1805">
+      <c r="DP6" t="s" s="1840">
         <v>61</v>
       </c>
-      <c r="DR6" t="s" s="1806">
+      <c r="DQ6" t="s" s="1841">
         <v>62</v>
       </c>
-      <c r="DS6" t="s" s="1807">
-        <v>51</v>
-      </c>
-      <c r="DT6" t="s" s="1808">
+      <c r="DR6" t="s" s="1842">
+        <v>63</v>
+      </c>
+      <c r="DS6" t="s" s="1843">
         <v>52</v>
       </c>
-      <c r="DU6" t="s" s="1809">
+      <c r="DT6" t="s" s="1844">
         <v>53</v>
       </c>
-      <c r="DV6" t="s" s="1810">
+      <c r="DU6" t="s" s="1845">
         <v>54</v>
       </c>
-      <c r="DW6" t="s" s="1811">
+      <c r="DV6" t="s" s="1846">
         <v>55</v>
       </c>
-      <c r="DX6" t="s" s="1812">
+      <c r="DW6" t="s" s="1847">
         <v>56</v>
       </c>
-      <c r="DY6" t="s" s="1813">
+      <c r="DX6" t="s" s="1848">
         <v>57</v>
       </c>
-      <c r="DZ6" t="s" s="1814">
+      <c r="DY6" t="s" s="1849">
         <v>58</v>
       </c>
-      <c r="EA6" t="s" s="1815">
+      <c r="DZ6" t="s" s="1850">
         <v>59</v>
       </c>
-      <c r="EB6" t="s" s="1816">
+      <c r="EA6" t="s" s="1851">
         <v>60</v>
       </c>
-      <c r="EC6" t="s" s="1817">
+      <c r="EB6" t="s" s="1852">
         <v>61</v>
       </c>
-      <c r="ED6" t="s" s="1818">
+      <c r="EC6" t="s" s="1853">
         <v>62</v>
       </c>
-      <c r="EE6" t="s" s="1819">
-        <v>51</v>
-      </c>
-      <c r="EF6" t="s" s="1820">
+      <c r="ED6" t="s" s="1854">
+        <v>63</v>
+      </c>
+      <c r="EE6" t="s" s="1855">
         <v>52</v>
       </c>
-      <c r="EG6" t="s" s="1821">
+      <c r="EF6" t="s" s="1856">
         <v>53</v>
       </c>
-      <c r="EH6" t="s" s="1822">
+      <c r="EG6" t="s" s="1857">
         <v>54</v>
       </c>
-      <c r="EI6" t="s" s="1823">
+      <c r="EH6" t="s" s="1858">
         <v>55</v>
       </c>
-      <c r="EJ6" t="s" s="1824">
+      <c r="EI6" t="s" s="1859">
         <v>56</v>
       </c>
-      <c r="EK6" t="s" s="1825">
+      <c r="EJ6" t="s" s="1860">
         <v>57</v>
       </c>
-      <c r="EL6" t="s" s="1826">
+      <c r="EK6" t="s" s="1861">
         <v>58</v>
       </c>
-      <c r="EM6" t="s" s="1827">
+      <c r="EL6" t="s" s="1862">
         <v>59</v>
       </c>
-      <c r="EN6" t="s" s="1828">
+      <c r="EM6" t="s" s="1863">
         <v>60</v>
       </c>
-      <c r="EO6" t="s" s="1829">
+      <c r="EN6" t="s" s="1864">
         <v>61</v>
       </c>
-      <c r="EP6" t="s" s="1830">
+      <c r="EO6" t="s" s="1865">
         <v>62</v>
       </c>
-      <c r="EQ6" t="s" s="1831">
-        <v>51</v>
-      </c>
-      <c r="ER6" t="s" s="1832">
+      <c r="EP6" t="s" s="1866">
+        <v>63</v>
+      </c>
+      <c r="EQ6" t="s" s="1867">
         <v>52</v>
       </c>
-      <c r="ES6" t="s" s="1833">
+      <c r="ER6" t="s" s="1868">
         <v>53</v>
       </c>
-      <c r="ET6" t="s" s="1834">
+      <c r="ES6" t="s" s="1869">
         <v>54</v>
       </c>
-      <c r="EU6" t="s" s="1835">
+      <c r="ET6" t="s" s="1870">
         <v>55</v>
       </c>
-      <c r="EV6" t="s" s="1836">
+      <c r="EU6" t="s" s="1871">
         <v>56</v>
       </c>
-      <c r="EW6" t="s" s="1837">
+      <c r="EV6" t="s" s="1872">
         <v>57</v>
       </c>
-      <c r="EX6" t="s" s="1838">
+      <c r="EW6" t="s" s="1873">
         <v>58</v>
       </c>
-      <c r="EY6" t="s" s="1839">
+      <c r="EX6" t="s" s="1874">
         <v>59</v>
       </c>
-      <c r="EZ6" t="s" s="1840">
+      <c r="EY6" t="s" s="1875">
         <v>60</v>
       </c>
-      <c r="FA6" t="s" s="1841">
+      <c r="EZ6" t="s" s="1876">
         <v>61</v>
       </c>
-      <c r="FB6" t="s" s="1842">
+      <c r="FA6" t="s" s="1877">
         <v>62</v>
       </c>
-      <c r="FC6" t="s" s="1843">
-        <v>51</v>
-      </c>
-      <c r="FD6" t="s" s="1844">
+      <c r="FB6" t="s" s="1878">
+        <v>63</v>
+      </c>
+      <c r="FC6" t="s" s="1879">
         <v>52</v>
       </c>
-      <c r="FE6" t="s" s="1845">
+      <c r="FD6" t="s" s="1880">
         <v>53</v>
       </c>
-      <c r="FF6" t="s" s="1846">
+      <c r="FE6" t="s" s="1881">
         <v>54</v>
       </c>
-      <c r="FG6" t="s" s="1847">
+      <c r="FF6" t="s" s="1882">
         <v>55</v>
       </c>
-      <c r="FH6" t="s" s="1848">
+      <c r="FG6" t="s" s="1883">
         <v>56</v>
       </c>
-      <c r="FI6" t="s" s="1849">
+      <c r="FH6" t="s" s="1884">
         <v>57</v>
       </c>
-      <c r="FJ6" t="s" s="1850">
+      <c r="FI6" t="s" s="1885">
         <v>58</v>
       </c>
-      <c r="FK6" t="s" s="1851">
+      <c r="FJ6" t="s" s="1886">
         <v>59</v>
       </c>
-      <c r="FL6" t="s" s="1852">
+      <c r="FK6" t="s" s="1887">
         <v>60</v>
       </c>
-      <c r="FM6" t="s" s="1853">
+      <c r="FL6" t="s" s="1888">
         <v>61</v>
       </c>
-      <c r="FN6" t="s" s="1854">
+      <c r="FM6" t="s" s="1889">
         <v>62</v>
       </c>
-      <c r="FO6" t="s" s="1855">
-        <v>51</v>
-      </c>
-      <c r="FP6" t="s" s="1856">
+      <c r="FN6" t="s" s="1890">
+        <v>63</v>
+      </c>
+      <c r="FO6" t="s" s="1891">
         <v>52</v>
       </c>
-      <c r="FQ6" t="s" s="1857">
+      <c r="FP6" t="s" s="1892">
         <v>53</v>
       </c>
-      <c r="FR6" t="s" s="1858">
+      <c r="FQ6" t="s" s="1893">
         <v>54</v>
       </c>
-      <c r="FS6" t="s" s="1859">
+      <c r="FR6" t="s" s="1894">
         <v>55</v>
       </c>
-      <c r="FT6" t="s" s="1860">
+      <c r="FS6" t="s" s="1895">
         <v>56</v>
       </c>
-      <c r="FU6" t="s" s="1861">
+      <c r="FT6" t="s" s="1896">
         <v>57</v>
       </c>
-      <c r="FV6" t="s" s="1862">
+      <c r="FU6" t="s" s="1897">
         <v>58</v>
       </c>
-      <c r="FW6" t="s" s="1863">
+      <c r="FV6" t="s" s="1898">
         <v>59</v>
       </c>
-      <c r="FX6" t="s" s="1864">
+      <c r="FW6" t="s" s="1899">
         <v>60</v>
       </c>
-      <c r="FY6" t="s" s="1865">
+      <c r="FX6" t="s" s="1900">
         <v>61</v>
       </c>
-      <c r="FZ6" t="s" s="1866">
+      <c r="FY6" t="s" s="1901">
         <v>62</v>
       </c>
-      <c r="GA6" t="s" s="1867">
-        <v>51</v>
-      </c>
-      <c r="GB6" t="s" s="1868">
+      <c r="FZ6" t="s" s="1902">
+        <v>63</v>
+      </c>
+      <c r="GA6" t="s" s="1903">
         <v>52</v>
       </c>
-      <c r="GC6" t="s" s="1869">
+      <c r="GB6" t="s" s="1904">
         <v>53</v>
       </c>
-      <c r="GD6" t="s" s="1870">
+      <c r="GC6" t="s" s="1905">
         <v>54</v>
       </c>
-      <c r="GE6" t="s" s="1871">
+      <c r="GD6" t="s" s="1906">
         <v>55</v>
       </c>
-      <c r="GF6" t="s" s="1872">
+      <c r="GE6" t="s" s="1907">
         <v>56</v>
       </c>
-      <c r="GG6" t="s" s="1873">
+      <c r="GF6" t="s" s="1908">
         <v>57</v>
       </c>
-      <c r="GH6" t="s" s="1874">
+      <c r="GG6" t="s" s="1909">
         <v>58</v>
       </c>
-      <c r="GI6" t="s" s="1875">
+      <c r="GH6" t="s" s="1910">
         <v>59</v>
       </c>
-      <c r="GJ6" t="s" s="1876">
+      <c r="GI6" t="s" s="1911">
         <v>60</v>
       </c>
-      <c r="GK6" t="s" s="1877">
+      <c r="GJ6" t="s" s="1912">
         <v>61</v>
       </c>
-      <c r="GL6" t="s" s="1878">
+      <c r="GK6" t="s" s="1913">
         <v>62</v>
       </c>
-      <c r="GM6" t="s" s="1879">
-        <v>51</v>
-      </c>
-      <c r="GN6" t="s" s="1880">
+      <c r="GL6" t="s" s="1914">
+        <v>63</v>
+      </c>
+      <c r="GM6" t="s" s="1915">
         <v>52</v>
       </c>
-      <c r="GO6" t="s" s="1881">
+      <c r="GN6" t="s" s="1916">
         <v>53</v>
       </c>
-      <c r="GP6" t="s" s="1882">
+      <c r="GO6" t="s" s="1917">
         <v>54</v>
       </c>
-      <c r="GQ6" t="s" s="1883">
+      <c r="GP6" t="s" s="1918">
         <v>55</v>
       </c>
-      <c r="GR6" t="s" s="1884">
+      <c r="GQ6" t="s" s="1919">
         <v>56</v>
       </c>
-      <c r="GS6" t="s" s="1885">
+      <c r="GR6" t="s" s="1920">
         <v>57</v>
       </c>
-      <c r="GT6" t="s" s="1886">
+      <c r="GS6" t="s" s="1921">
         <v>58</v>
       </c>
-      <c r="GU6" t="s" s="1887">
+      <c r="GT6" t="s" s="1922">
         <v>59</v>
       </c>
-      <c r="GV6" t="s" s="1888">
+      <c r="GU6" t="s" s="1923">
         <v>60</v>
       </c>
-      <c r="GW6" t="s" s="1889">
+      <c r="GV6" t="s" s="1924">
         <v>61</v>
       </c>
-      <c r="GX6" t="s" s="1890">
+      <c r="GW6" t="s" s="1925">
         <v>62</v>
       </c>
-      <c r="GY6" t="s" s="1891">
-        <v>51</v>
-      </c>
-      <c r="GZ6" t="s" s="1892">
+      <c r="GX6" t="s" s="1926">
+        <v>63</v>
+      </c>
+      <c r="GY6" t="s" s="1927">
         <v>52</v>
       </c>
-      <c r="HA6" t="s" s="1893">
+      <c r="GZ6" t="s" s="1928">
         <v>53</v>
       </c>
-      <c r="HB6" t="s" s="1894">
+      <c r="HA6" t="s" s="1929">
         <v>54</v>
       </c>
-      <c r="HC6" t="s" s="1895">
+      <c r="HB6" t="s" s="1930">
         <v>55</v>
       </c>
-      <c r="HD6" t="s" s="1896">
+      <c r="HC6" t="s" s="1931">
         <v>56</v>
       </c>
-      <c r="HE6" t="s" s="1897">
+      <c r="HD6" t="s" s="1932">
         <v>57</v>
       </c>
-      <c r="HF6" t="s" s="1898">
+      <c r="HE6" t="s" s="1933">
         <v>58</v>
       </c>
-      <c r="HG6" t="s" s="1899">
+      <c r="HF6" t="s" s="1934">
         <v>59</v>
       </c>
-      <c r="HH6" t="s" s="1900">
+      <c r="HG6" t="s" s="1935">
         <v>60</v>
       </c>
-      <c r="HI6" t="s" s="1901">
+      <c r="HH6" t="s" s="1936">
         <v>61</v>
       </c>
-      <c r="HJ6" t="s" s="1902">
+      <c r="HI6" t="s" s="1937">
         <v>62</v>
       </c>
-      <c r="HK6" t="s" s="1903">
-        <v>51</v>
-      </c>
-      <c r="HL6" t="s" s="1904">
+      <c r="HJ6" t="s" s="1938">
+        <v>63</v>
+      </c>
+      <c r="HK6" t="s" s="1939">
         <v>52</v>
       </c>
-      <c r="HM6" t="s" s="1905">
+      <c r="HL6" t="s" s="1940">
         <v>53</v>
       </c>
-      <c r="HN6" t="s" s="1906">
+      <c r="HM6" t="s" s="1941">
         <v>54</v>
       </c>
-      <c r="HO6" t="s" s="1907">
+      <c r="HN6" t="s" s="1942">
         <v>55</v>
       </c>
-      <c r="HP6" t="s" s="1908">
+      <c r="HO6" t="s" s="1943">
         <v>56</v>
       </c>
-      <c r="HQ6" t="s" s="1909">
+      <c r="HP6" t="s" s="1944">
         <v>57</v>
       </c>
-      <c r="HR6" t="s" s="1910">
+      <c r="HQ6" t="s" s="1945">
         <v>58</v>
       </c>
-      <c r="HS6" t="s" s="1911">
+      <c r="HR6" t="s" s="1946">
         <v>59</v>
       </c>
-      <c r="HT6" t="s" s="1912">
+      <c r="HS6" t="s" s="1947">
         <v>60</v>
       </c>
-      <c r="HU6" t="s" s="1913">
+      <c r="HT6" t="s" s="1948">
         <v>61</v>
       </c>
-      <c r="HV6" t="s" s="1914">
+      <c r="HU6" t="s" s="1949">
         <v>62</v>
       </c>
-      <c r="HW6" t="s" s="1915">
-        <v>51</v>
-      </c>
-      <c r="HX6" t="s" s="1916">
+      <c r="HV6" t="s" s="1950">
+        <v>63</v>
+      </c>
+      <c r="HW6" t="s" s="1951">
         <v>52</v>
       </c>
-      <c r="HY6" t="s" s="1917">
+      <c r="HX6" t="s" s="1952">
         <v>53</v>
       </c>
-      <c r="HZ6" t="s" s="1918">
+      <c r="HY6" t="s" s="1953">
         <v>54</v>
       </c>
-      <c r="IA6" t="s" s="1919">
+      <c r="HZ6" t="s" s="1954">
         <v>55</v>
       </c>
-      <c r="IB6" t="s" s="1920">
+      <c r="IA6" t="s" s="1955">
         <v>56</v>
       </c>
-      <c r="IC6" t="s" s="1921">
+      <c r="IB6" t="s" s="1956">
         <v>57</v>
       </c>
-      <c r="ID6" t="s" s="1922">
+      <c r="IC6" t="s" s="1957">
         <v>58</v>
       </c>
-      <c r="IE6" t="s" s="1923">
+      <c r="ID6" t="s" s="1958">
         <v>59</v>
       </c>
-      <c r="IF6" t="s" s="1924">
+      <c r="IE6" t="s" s="1959">
         <v>60</v>
       </c>
-      <c r="IG6" t="s" s="1925">
+      <c r="IF6" t="s" s="1960">
         <v>61</v>
       </c>
-      <c r="IH6" t="s" s="1926">
+      <c r="IG6" t="s" s="1961">
         <v>62</v>
       </c>
-      <c r="II6" t="s" s="1927">
-        <v>51</v>
-      </c>
-      <c r="IJ6" t="s" s="1928">
+      <c r="IH6" t="s" s="1962">
+        <v>63</v>
+      </c>
+      <c r="II6" t="s" s="1963">
         <v>52</v>
       </c>
-      <c r="IK6" t="s" s="1929">
+      <c r="IJ6" t="s" s="1964">
         <v>53</v>
       </c>
-      <c r="IL6" t="s" s="1930">
+      <c r="IK6" t="s" s="1965">
         <v>54</v>
       </c>
-      <c r="IM6" t="s" s="1931">
+      <c r="IL6" t="s" s="1966">
         <v>55</v>
       </c>
-      <c r="IN6" t="s" s="1932">
+      <c r="IM6" t="s" s="1967">
         <v>56</v>
       </c>
-      <c r="IO6" t="s" s="1933">
+      <c r="IN6" t="s" s="1968">
         <v>57</v>
       </c>
-      <c r="IP6" t="s" s="1934">
+      <c r="IO6" t="s" s="1969">
         <v>58</v>
       </c>
-      <c r="IQ6" t="s" s="1935">
+      <c r="IP6" t="s" s="1970">
         <v>59</v>
       </c>
-      <c r="IR6" t="s" s="1936">
+      <c r="IQ6" t="s" s="1971">
         <v>60</v>
       </c>
-      <c r="IS6" t="s" s="1937">
+      <c r="IR6" t="s" s="1972">
         <v>61</v>
       </c>
-      <c r="IT6" t="s" s="1938">
+      <c r="IS6" t="s" s="1973">
         <v>62</v>
       </c>
-      <c r="IU6" t="s" s="1939">
-        <v>51</v>
-      </c>
-      <c r="IV6" t="s" s="1940">
+      <c r="IT6" t="s" s="1974">
+        <v>63</v>
+      </c>
+      <c r="IU6" t="s" s="1975">
         <v>52</v>
       </c>
-      <c r="IW6" t="s" s="1941">
+      <c r="IV6" t="s" s="1976">
         <v>53</v>
       </c>
-      <c r="IX6" t="s" s="1942">
+      <c r="IW6" t="s" s="1977">
         <v>54</v>
       </c>
-      <c r="IY6" t="s" s="1943">
+      <c r="IX6" t="s" s="1978">
         <v>55</v>
       </c>
-      <c r="IZ6" t="s" s="1944">
+      <c r="IY6" t="s" s="1979">
         <v>56</v>
       </c>
-      <c r="JA6" t="s" s="1945">
+      <c r="IZ6" t="s" s="1980">
         <v>57</v>
       </c>
-      <c r="JB6" t="s" s="1946">
+      <c r="JA6" t="s" s="1981">
         <v>58</v>
       </c>
-      <c r="JC6" t="s" s="1947">
+      <c r="JB6" t="s" s="1982">
         <v>59</v>
       </c>
-      <c r="JD6" t="s" s="1948">
+      <c r="JC6" t="s" s="1983">
         <v>60</v>
       </c>
-      <c r="JE6" t="s" s="1949">
+      <c r="JD6" t="s" s="1984">
         <v>61</v>
       </c>
-      <c r="JF6" t="s" s="1950">
+      <c r="JE6" t="s" s="1985">
         <v>62</v>
       </c>
-      <c r="JG6" t="s" s="1951">
-        <v>51</v>
-      </c>
-      <c r="JH6" t="s" s="1952">
+      <c r="JF6" t="s" s="1986">
+        <v>63</v>
+      </c>
+      <c r="JG6" t="s" s="1987">
         <v>52</v>
       </c>
-      <c r="JI6" t="s" s="1953">
+      <c r="JH6" t="s" s="1988">
         <v>53</v>
       </c>
-      <c r="JJ6" t="s" s="1954">
+      <c r="JI6" t="s" s="1989">
         <v>54</v>
       </c>
-      <c r="JK6" t="s" s="1955">
+      <c r="JJ6" t="s" s="1990">
         <v>55</v>
       </c>
-      <c r="JL6" t="s" s="1956">
+      <c r="JK6" t="s" s="1991">
         <v>56</v>
       </c>
-      <c r="JM6" t="s" s="1957">
+      <c r="JL6" t="s" s="1992">
         <v>57</v>
       </c>
-      <c r="JN6" t="s" s="1958">
+      <c r="JM6" t="s" s="1993">
         <v>58</v>
       </c>
-      <c r="JO6" t="s" s="1959">
+      <c r="JN6" t="s" s="1994">
         <v>59</v>
       </c>
-      <c r="JP6" t="s" s="1960">
+      <c r="JO6" t="s" s="1995">
         <v>60</v>
       </c>
-      <c r="JQ6" t="s" s="1961">
+      <c r="JP6" t="s" s="1996">
         <v>61</v>
       </c>
-      <c r="JR6" t="s" s="1962">
+      <c r="JQ6" t="s" s="1997">
         <v>62</v>
       </c>
-      <c r="JS6" t="s" s="1963">
-        <v>51</v>
-      </c>
-      <c r="JT6" t="s" s="1964">
+      <c r="JR6" t="s" s="1998">
+        <v>63</v>
+      </c>
+      <c r="JS6" t="s" s="1999">
         <v>52</v>
       </c>
-      <c r="JU6" t="s" s="1965">
+      <c r="JT6" t="s" s="2000">
         <v>53</v>
       </c>
-      <c r="JV6" t="s" s="1966">
+      <c r="JU6" t="s" s="2001">
         <v>54</v>
       </c>
-      <c r="JW6" t="s" s="1967">
+      <c r="JV6" t="s" s="2002">
         <v>55</v>
       </c>
-      <c r="JX6" t="s" s="1968">
+      <c r="JW6" t="s" s="2003">
         <v>56</v>
       </c>
-      <c r="JY6" t="s" s="1969">
+      <c r="JX6" t="s" s="2004">
         <v>57</v>
       </c>
-      <c r="JZ6" t="s" s="1970">
+      <c r="JY6" t="s" s="2005">
         <v>58</v>
       </c>
-      <c r="KA6" t="s" s="1971">
+      <c r="JZ6" t="s" s="2006">
         <v>59</v>
       </c>
-      <c r="KB6" t="s" s="1972">
+      <c r="KA6" t="s" s="2007">
         <v>60</v>
       </c>
-      <c r="KC6" t="s" s="1973">
+      <c r="KB6" t="s" s="2008">
         <v>61</v>
       </c>
-      <c r="KD6" t="s" s="1974">
+      <c r="KC6" t="s" s="2009">
         <v>62</v>
       </c>
-      <c r="KE6" t="s" s="1975">
-        <v>51</v>
-      </c>
-      <c r="KF6" t="s" s="1976">
+      <c r="KD6" t="s" s="2010">
+        <v>63</v>
+      </c>
+      <c r="KE6" t="s" s="2011">
         <v>52</v>
       </c>
-      <c r="KG6" t="s" s="1977">
+      <c r="KF6" t="s" s="2012">
         <v>53</v>
       </c>
-      <c r="KH6" t="s" s="1978">
+      <c r="KG6" t="s" s="2013">
         <v>54</v>
       </c>
-      <c r="KI6" t="s" s="1979">
+      <c r="KH6" t="s" s="2014">
         <v>55</v>
       </c>
-      <c r="KJ6" t="s" s="1980">
+      <c r="KI6" t="s" s="2015">
         <v>56</v>
       </c>
-      <c r="KK6" t="s" s="1981">
+      <c r="KJ6" t="s" s="2016">
         <v>57</v>
       </c>
-      <c r="KL6" t="s" s="1982">
+      <c r="KK6" t="s" s="2017">
         <v>58</v>
       </c>
-      <c r="KM6" t="s" s="1983">
+      <c r="KL6" t="s" s="2018">
         <v>59</v>
       </c>
-      <c r="KN6" t="s" s="1984">
+      <c r="KM6" t="s" s="2019">
         <v>60</v>
       </c>
-      <c r="KO6" t="s" s="1985">
+      <c r="KN6" t="s" s="2020">
         <v>61</v>
       </c>
-      <c r="KP6" t="s" s="1986">
+      <c r="KO6" t="s" s="2021">
         <v>62</v>
       </c>
-      <c r="KQ6" t="s" s="1987">
-        <v>51</v>
-      </c>
-      <c r="KR6" t="s" s="1988">
+      <c r="KP6" t="s" s="2022">
+        <v>63</v>
+      </c>
+      <c r="KQ6" t="s" s="2023">
         <v>52</v>
       </c>
-      <c r="KS6" t="s" s="1989">
+      <c r="KR6" t="s" s="2024">
         <v>53</v>
       </c>
-      <c r="KT6" t="s" s="1990">
+      <c r="KS6" t="s" s="2025">
         <v>54</v>
       </c>
-      <c r="KU6" t="s" s="1991">
+      <c r="KT6" t="s" s="2026">
         <v>55</v>
       </c>
-      <c r="KV6" t="s" s="1992">
+      <c r="KU6" t="s" s="2027">
         <v>56</v>
       </c>
-      <c r="KW6" t="s" s="1993">
+      <c r="KV6" t="s" s="2028">
         <v>57</v>
       </c>
-      <c r="KX6" t="s" s="1994">
+      <c r="KW6" t="s" s="2029">
         <v>58</v>
       </c>
-      <c r="KY6" t="s" s="1995">
+      <c r="KX6" t="s" s="2030">
         <v>59</v>
       </c>
-      <c r="KZ6" t="s" s="1996">
+      <c r="KY6" t="s" s="2031">
         <v>60</v>
       </c>
-      <c r="LA6" t="s" s="1997">
+      <c r="KZ6" t="s" s="2032">
         <v>61</v>
       </c>
-      <c r="LB6" t="s" s="1998">
+      <c r="LA6" t="s" s="2033">
         <v>62</v>
       </c>
-      <c r="LC6" t="s" s="1999">
-        <v>51</v>
-      </c>
-      <c r="LD6" t="s" s="2000">
+      <c r="LB6" t="s" s="2034">
+        <v>63</v>
+      </c>
+      <c r="LC6" t="s" s="2035">
         <v>52</v>
       </c>
-      <c r="LE6" t="s" s="2001">
+      <c r="LD6" t="s" s="2036">
         <v>53</v>
       </c>
-      <c r="LF6" t="s" s="2002">
+      <c r="LE6" t="s" s="2037">
         <v>54</v>
       </c>
-      <c r="LG6" t="s" s="2003">
+      <c r="LF6" t="s" s="2038">
         <v>55</v>
       </c>
-      <c r="LH6" t="s" s="2004">
+      <c r="LG6" t="s" s="2039">
         <v>56</v>
       </c>
-      <c r="LI6" t="s" s="2005">
+      <c r="LH6" t="s" s="2040">
         <v>57</v>
       </c>
-      <c r="LJ6" t="s" s="2006">
+      <c r="LI6" t="s" s="2041">
         <v>58</v>
       </c>
-      <c r="LK6" t="s" s="2007">
+      <c r="LJ6" t="s" s="2042">
         <v>59</v>
       </c>
-      <c r="LL6" t="s" s="2008">
+      <c r="LK6" t="s" s="2043">
         <v>60</v>
       </c>
-      <c r="LM6" t="s" s="2009">
+      <c r="LL6" t="s" s="2044">
         <v>61</v>
       </c>
-      <c r="LN6" t="s" s="2010">
+      <c r="LM6" t="s" s="2045">
         <v>62</v>
       </c>
-      <c r="LO6" t="s" s="2011">
-        <v>51</v>
-      </c>
-      <c r="LP6" t="s" s="2012">
+      <c r="LN6" t="s" s="2046">
+        <v>63</v>
+      </c>
+      <c r="LO6" t="s" s="2047">
         <v>52</v>
       </c>
-      <c r="LQ6" t="s" s="2013">
+      <c r="LP6" t="s" s="2048">
         <v>53</v>
       </c>
-      <c r="LR6" t="s" s="2014">
+      <c r="LQ6" t="s" s="2049">
         <v>54</v>
       </c>
-      <c r="LS6" t="s" s="2015">
+      <c r="LR6" t="s" s="2050">
         <v>55</v>
       </c>
-      <c r="LT6" t="s" s="2016">
+      <c r="LS6" t="s" s="2051">
         <v>56</v>
       </c>
-      <c r="LU6" t="s" s="2017">
+      <c r="LT6" t="s" s="2052">
         <v>57</v>
       </c>
-      <c r="LV6" t="s" s="2018">
+      <c r="LU6" t="s" s="2053">
         <v>58</v>
       </c>
-      <c r="LW6" t="s" s="2019">
+      <c r="LV6" t="s" s="2054">
         <v>59</v>
       </c>
-      <c r="LX6" t="s" s="2020">
+      <c r="LW6" t="s" s="2055">
         <v>60</v>
       </c>
-      <c r="LY6" t="s" s="2021">
+      <c r="LX6" t="s" s="2056">
         <v>61</v>
       </c>
-      <c r="LZ6" t="s" s="2022">
+      <c r="LY6" t="s" s="2057">
         <v>62</v>
       </c>
-      <c r="MA6" t="s" s="2023">
-        <v>51</v>
-      </c>
-      <c r="MB6" t="s" s="2024">
+      <c r="LZ6" t="s" s="2058">
+        <v>63</v>
+      </c>
+      <c r="MA6" t="s" s="2059">
         <v>52</v>
       </c>
-      <c r="MC6" t="s" s="2025">
+      <c r="MB6" t="s" s="2060">
         <v>53</v>
       </c>
-      <c r="MD6" t="s" s="2026">
+      <c r="MC6" t="s" s="2061">
         <v>54</v>
       </c>
-      <c r="ME6" t="s" s="2027">
+      <c r="MD6" t="s" s="2062">
         <v>55</v>
       </c>
-      <c r="MF6" t="s" s="2028">
+      <c r="ME6" t="s" s="2063">
         <v>56</v>
       </c>
-      <c r="MG6" t="s" s="2029">
+      <c r="MF6" t="s" s="2064">
         <v>57</v>
       </c>
-      <c r="MH6" t="s" s="2030">
+      <c r="MG6" t="s" s="2065">
         <v>58</v>
       </c>
-      <c r="MI6" t="s" s="2031">
+      <c r="MH6" t="s" s="2066">
         <v>59</v>
       </c>
-      <c r="MJ6" t="s" s="2032">
+      <c r="MI6" t="s" s="2067">
         <v>60</v>
       </c>
-      <c r="MK6" t="s" s="2033">
+      <c r="MJ6" t="s" s="2068">
         <v>61</v>
       </c>
-      <c r="ML6" t="s" s="2034">
+      <c r="MK6" t="s" s="2069">
         <v>62</v>
       </c>
-      <c r="MM6" t="s" s="2035">
-        <v>51</v>
-      </c>
-      <c r="MN6" t="s" s="2036">
+      <c r="ML6" t="s" s="2070">
+        <v>63</v>
+      </c>
+      <c r="MM6" t="s" s="2071">
         <v>52</v>
       </c>
-      <c r="MO6" t="s" s="2037">
+      <c r="MN6" t="s" s="2072">
         <v>53</v>
       </c>
-      <c r="MP6" t="s" s="2038">
+      <c r="MO6" t="s" s="2073">
         <v>54</v>
       </c>
-      <c r="MQ6" t="s" s="2039">
+      <c r="MP6" t="s" s="2074">
         <v>55</v>
       </c>
-      <c r="MR6" t="s" s="2040">
+      <c r="MQ6" t="s" s="2075">
         <v>56</v>
       </c>
-      <c r="MS6" t="s" s="2041">
+      <c r="MR6" t="s" s="2076">
         <v>57</v>
       </c>
-      <c r="MT6" t="s" s="2042">
+      <c r="MS6" t="s" s="2077">
         <v>58</v>
       </c>
-      <c r="MU6" t="s" s="2043">
+      <c r="MT6" t="s" s="2078">
         <v>59</v>
       </c>
-      <c r="MV6" t="s" s="2044">
+      <c r="MU6" t="s" s="2079">
         <v>60</v>
       </c>
-      <c r="MW6" t="s" s="2045">
+      <c r="MV6" t="s" s="2080">
         <v>61</v>
       </c>
-      <c r="MX6" t="s" s="2046">
+      <c r="MW6" t="s" s="2081">
         <v>62</v>
       </c>
-      <c r="MY6" t="s" s="2047">
-        <v>51</v>
-      </c>
-      <c r="MZ6" t="s" s="2048">
+      <c r="MX6" t="s" s="2082">
+        <v>63</v>
+      </c>
+      <c r="MY6" t="s" s="2083">
         <v>52</v>
       </c>
-      <c r="NA6" t="s" s="2049">
+      <c r="MZ6" t="s" s="2084">
         <v>53</v>
       </c>
-      <c r="NB6" t="s" s="2050">
+      <c r="NA6" t="s" s="2085">
         <v>54</v>
       </c>
-      <c r="NC6" t="s" s="2051">
+      <c r="NB6" t="s" s="2086">
         <v>55</v>
       </c>
-      <c r="ND6" t="s" s="2052">
+      <c r="NC6" t="s" s="2087">
         <v>56</v>
       </c>
-      <c r="NE6" t="s" s="2053">
+      <c r="ND6" t="s" s="2088">
         <v>57</v>
       </c>
-      <c r="NF6" t="s" s="2054">
+      <c r="NE6" t="s" s="2089">
         <v>58</v>
       </c>
-      <c r="NG6" t="s" s="2055">
+      <c r="NF6" t="s" s="2090">
         <v>59</v>
       </c>
-      <c r="NH6" t="s" s="2056">
+      <c r="NG6" t="s" s="2091">
         <v>60</v>
       </c>
-      <c r="NI6" t="s" s="2057">
+      <c r="NH6" t="s" s="2092">
         <v>61</v>
       </c>
-      <c r="NJ6" t="s" s="2058">
+      <c r="NI6" t="s" s="2093">
         <v>62</v>
       </c>
-      <c r="NK6" t="s" s="2059">
-        <v>51</v>
-      </c>
-      <c r="NL6" t="s" s="2060">
+      <c r="NJ6" t="s" s="2094">
+        <v>63</v>
+      </c>
+      <c r="NK6" t="s" s="2095">
         <v>52</v>
       </c>
-      <c r="NM6" t="s" s="2061">
+      <c r="NL6" t="s" s="2096">
         <v>53</v>
       </c>
-      <c r="NN6" t="s" s="2062">
+      <c r="NM6" t="s" s="2097">
         <v>54</v>
       </c>
-      <c r="NO6" t="s" s="2063">
+      <c r="NN6" t="s" s="2098">
         <v>55</v>
       </c>
-      <c r="NP6" t="s" s="2064">
+      <c r="NO6" t="s" s="2099">
         <v>56</v>
       </c>
-      <c r="NQ6" t="s" s="2065">
+      <c r="NP6" t="s" s="2100">
         <v>57</v>
       </c>
-      <c r="NR6" t="s" s="2066">
+      <c r="NQ6" t="s" s="2101">
         <v>58</v>
       </c>
-      <c r="NS6" t="s" s="2067">
+      <c r="NR6" t="s" s="2102">
         <v>59</v>
       </c>
-      <c r="NT6" t="s" s="2068">
+      <c r="NS6" t="s" s="2103">
         <v>60</v>
       </c>
-      <c r="NU6" t="s" s="2069">
+      <c r="NT6" t="s" s="2104">
         <v>61</v>
       </c>
-      <c r="NV6" t="s" s="2070">
+      <c r="NU6" t="s" s="2105">
         <v>62</v>
       </c>
-      <c r="NW6" t="s" s="2071">
-        <v>51</v>
-      </c>
-      <c r="NX6" t="s" s="2072">
+      <c r="NV6" t="s" s="2106">
+        <v>63</v>
+      </c>
+      <c r="NW6" t="s" s="2107">
         <v>52</v>
       </c>
-      <c r="NY6" t="s" s="2073">
+      <c r="NX6" t="s" s="2108">
         <v>53</v>
       </c>
-      <c r="NZ6" t="s" s="2074">
+      <c r="NY6" t="s" s="2109">
         <v>54</v>
       </c>
-      <c r="OA6" t="s" s="2075">
+      <c r="NZ6" t="s" s="2110">
         <v>55</v>
       </c>
-      <c r="OB6" t="s" s="2076">
+      <c r="OA6" t="s" s="2111">
         <v>56</v>
       </c>
-      <c r="OC6" t="s" s="2077">
+      <c r="OB6" t="s" s="2112">
         <v>57</v>
       </c>
-      <c r="OD6" t="s" s="2078">
+      <c r="OC6" t="s" s="2113">
         <v>58</v>
       </c>
-      <c r="OE6" t="s" s="2079">
+      <c r="OD6" t="s" s="2114">
         <v>59</v>
       </c>
-      <c r="OF6" t="s" s="2080">
+      <c r="OE6" t="s" s="2115">
         <v>60</v>
       </c>
-      <c r="OG6" t="s" s="2081">
+      <c r="OF6" t="s" s="2116">
         <v>61</v>
       </c>
-      <c r="OH6" t="s" s="2082">
+      <c r="OG6" t="s" s="2117">
         <v>62</v>
       </c>
-      <c r="OI6" t="s" s="2083">
-        <v>51</v>
-      </c>
-      <c r="OJ6" t="s" s="2084">
+      <c r="OH6" t="s" s="2118">
+        <v>63</v>
+      </c>
+      <c r="OI6" t="s" s="2119">
         <v>52</v>
       </c>
-      <c r="OK6" t="s" s="2085">
+      <c r="OJ6" t="s" s="2120">
         <v>53</v>
       </c>
-      <c r="OL6" t="s" s="2086">
+      <c r="OK6" t="s" s="2121">
         <v>54</v>
       </c>
-      <c r="OM6" t="s" s="2087">
+      <c r="OL6" t="s" s="2122">
         <v>55</v>
       </c>
-      <c r="ON6" t="s" s="2088">
+      <c r="OM6" t="s" s="2123">
         <v>56</v>
       </c>
-      <c r="OO6" t="s" s="2089">
+      <c r="ON6" t="s" s="2124">
         <v>57</v>
       </c>
-      <c r="OP6" t="s" s="2090">
+      <c r="OO6" t="s" s="2125">
         <v>58</v>
       </c>
-      <c r="OQ6" t="s" s="2091">
+      <c r="OP6" t="s" s="2126">
         <v>59</v>
       </c>
-      <c r="OR6" t="s" s="2092">
+      <c r="OQ6" t="s" s="2127">
         <v>60</v>
       </c>
-      <c r="OS6" t="s" s="2093">
+      <c r="OR6" t="s" s="2128">
         <v>61</v>
       </c>
-      <c r="OT6" t="s" s="2094">
+      <c r="OS6" t="s" s="2129">
         <v>62</v>
       </c>
-      <c r="OU6" t="s" s="2095">
-        <v>51</v>
-      </c>
-      <c r="OV6" t="s" s="2096">
+      <c r="OT6" t="s" s="2130">
+        <v>63</v>
+      </c>
+      <c r="OU6" t="s" s="2131">
         <v>52</v>
       </c>
-      <c r="OW6" t="s" s="2097">
+      <c r="OV6" t="s" s="2132">
         <v>53</v>
       </c>
-      <c r="OX6" t="s" s="2098">
+      <c r="OW6" t="s" s="2133">
         <v>54</v>
       </c>
-      <c r="OY6" t="s" s="2099">
+      <c r="OX6" t="s" s="2134">
         <v>55</v>
       </c>
-      <c r="OZ6" t="s" s="2100">
+      <c r="OY6" t="s" s="2135">
         <v>56</v>
       </c>
-      <c r="PA6" t="s" s="2101">
+      <c r="OZ6" t="s" s="2136">
         <v>57</v>
       </c>
-      <c r="PB6" t="s" s="2102">
+      <c r="PA6" t="s" s="2137">
         <v>58</v>
       </c>
-      <c r="PC6" t="s" s="2103">
+      <c r="PB6" t="s" s="2138">
         <v>59</v>
       </c>
-      <c r="PD6" t="s" s="2104">
+      <c r="PC6" t="s" s="2139">
         <v>60</v>
       </c>
-      <c r="PE6" t="s" s="2105">
+      <c r="PD6" t="s" s="2140">
         <v>61</v>
       </c>
-      <c r="PF6" t="s" s="2106">
+      <c r="PE6" t="s" s="2141">
         <v>62</v>
       </c>
-      <c r="PG6" t="s" s="2107">
-        <v>51</v>
-      </c>
-      <c r="PH6" t="s" s="2108">
+      <c r="PF6" t="s" s="2142">
+        <v>63</v>
+      </c>
+      <c r="PG6" t="s" s="2143">
         <v>52</v>
       </c>
-      <c r="PI6" t="s" s="2109">
+      <c r="PH6" t="s" s="2144">
         <v>53</v>
       </c>
-      <c r="PJ6" t="s" s="2110">
+      <c r="PI6" t="s" s="2145">
         <v>54</v>
       </c>
-      <c r="PK6" t="s" s="2111">
+      <c r="PJ6" t="s" s="2146">
         <v>55</v>
       </c>
-      <c r="PL6" t="s" s="2112">
+      <c r="PK6" t="s" s="2147">
         <v>56</v>
       </c>
-      <c r="PM6" t="s" s="2113">
+      <c r="PL6" t="s" s="2148">
         <v>57</v>
       </c>
-      <c r="PN6" t="s" s="2114">
+      <c r="PM6" t="s" s="2149">
         <v>58</v>
       </c>
-      <c r="PO6" t="s" s="2115">
+      <c r="PN6" t="s" s="2150">
         <v>59</v>
       </c>
-      <c r="PP6" t="s" s="2116">
+      <c r="PO6" t="s" s="2151">
         <v>60</v>
       </c>
-      <c r="PQ6" t="s" s="2117">
+      <c r="PP6" t="s" s="2152">
         <v>61</v>
       </c>
-      <c r="PR6" t="s" s="2118">
+      <c r="PQ6" t="s" s="2153">
         <v>62</v>
       </c>
-      <c r="PS6" t="s" s="2119">
-        <v>51</v>
-      </c>
-      <c r="PT6" t="s" s="2120">
+      <c r="PR6" t="s" s="2154">
+        <v>63</v>
+      </c>
+      <c r="PS6" t="s" s="2155">
         <v>52</v>
       </c>
-      <c r="PU6" t="s" s="2121">
+      <c r="PT6" t="s" s="2156">
         <v>53</v>
       </c>
-      <c r="PV6" t="s" s="2122">
+      <c r="PU6" t="s" s="2157">
         <v>54</v>
       </c>
-      <c r="PW6" t="s" s="2123">
+      <c r="PV6" t="s" s="2158">
         <v>55</v>
       </c>
-      <c r="PX6" t="s" s="2124">
+      <c r="PW6" t="s" s="2159">
         <v>56</v>
       </c>
-      <c r="PY6" t="s" s="2125">
+      <c r="PX6" t="s" s="2160">
         <v>57</v>
       </c>
-      <c r="PZ6" t="s" s="2126">
+      <c r="PY6" t="s" s="2161">
         <v>58</v>
       </c>
-      <c r="QA6" t="s" s="2127">
+      <c r="PZ6" t="s" s="2162">
         <v>59</v>
       </c>
-      <c r="QB6" t="s" s="2128">
+      <c r="QA6" t="s" s="2163">
         <v>60</v>
       </c>
-      <c r="QC6" t="s" s="2129">
+      <c r="QB6" t="s" s="2164">
         <v>61</v>
       </c>
-      <c r="QD6" t="s" s="2130">
+      <c r="QC6" t="s" s="2165">
         <v>62</v>
       </c>
-      <c r="QE6" t="s" s="2131">
-        <v>51</v>
-      </c>
-      <c r="QF6" t="s" s="2132">
+      <c r="QD6" t="s" s="2166">
+        <v>63</v>
+      </c>
+      <c r="QE6" t="s" s="2167">
         <v>52</v>
       </c>
-      <c r="QG6" t="s" s="2133">
+      <c r="QF6" t="s" s="2168">
         <v>53</v>
       </c>
-      <c r="QH6" t="s" s="2134">
+      <c r="QG6" t="s" s="2169">
         <v>54</v>
       </c>
-      <c r="QI6" t="s" s="2135">
+      <c r="QH6" t="s" s="2170">
         <v>55</v>
       </c>
-      <c r="QJ6" t="s" s="2136">
+      <c r="QI6" t="s" s="2171">
         <v>56</v>
       </c>
-      <c r="QK6" t="s" s="2137">
+      <c r="QJ6" t="s" s="2172">
         <v>57</v>
       </c>
-      <c r="QL6" t="s" s="2138">
+      <c r="QK6" t="s" s="2173">
         <v>58</v>
       </c>
-      <c r="QM6" t="s" s="2139">
+      <c r="QL6" t="s" s="2174">
         <v>59</v>
       </c>
-      <c r="QN6" t="s" s="2140">
+      <c r="QM6" t="s" s="2175">
         <v>60</v>
       </c>
-      <c r="QO6" t="s" s="2141">
+      <c r="QN6" t="s" s="2176">
         <v>61</v>
       </c>
-      <c r="QP6" t="s" s="2142">
+      <c r="QO6" t="s" s="2177">
         <v>62</v>
       </c>
-      <c r="QQ6" t="s" s="2143">
-        <v>51</v>
-      </c>
-      <c r="QR6" t="s" s="2144">
+      <c r="QP6" t="s" s="2178">
+        <v>63</v>
+      </c>
+      <c r="QQ6" t="s" s="2179">
         <v>52</v>
       </c>
-      <c r="QS6" t="s" s="2145">
+      <c r="QR6" t="s" s="2180">
         <v>53</v>
       </c>
-      <c r="QT6" t="s" s="2146">
+      <c r="QS6" t="s" s="2181">
         <v>54</v>
       </c>
-      <c r="QU6" t="s" s="2147">
+      <c r="QT6" t="s" s="2182">
         <v>55</v>
       </c>
-      <c r="QV6" t="s" s="2148">
+      <c r="QU6" t="s" s="2183">
         <v>56</v>
       </c>
-      <c r="QW6" t="s" s="2149">
+      <c r="QV6" t="s" s="2184">
         <v>57</v>
       </c>
-      <c r="QX6" t="s" s="2150">
+      <c r="QW6" t="s" s="2185">
         <v>58</v>
       </c>
-      <c r="QY6" t="s" s="2151">
+      <c r="QX6" t="s" s="2186">
         <v>59</v>
       </c>
-      <c r="QZ6" t="s" s="2152">
+      <c r="QY6" t="s" s="2187">
         <v>60</v>
       </c>
-      <c r="RA6" t="s" s="2153">
+      <c r="QZ6" t="s" s="2188">
         <v>61</v>
       </c>
-      <c r="RB6" t="s" s="2154">
+      <c r="RA6" t="s" s="2189">
         <v>62</v>
       </c>
-      <c r="RC6" t="s" s="2155">
-        <v>51</v>
-      </c>
-      <c r="RD6" t="s" s="2156">
+      <c r="RB6" t="s" s="2190">
+        <v>63</v>
+      </c>
+      <c r="RC6" t="s" s="2191">
         <v>52</v>
       </c>
-      <c r="RE6" t="s" s="2157">
+      <c r="RD6" t="s" s="2192">
         <v>53</v>
       </c>
-      <c r="RF6" t="s" s="2158">
+      <c r="RE6" t="s" s="2193">
         <v>54</v>
       </c>
-      <c r="RG6" t="s" s="2159">
+      <c r="RF6" t="s" s="2194">
         <v>55</v>
       </c>
-      <c r="RH6" t="s" s="2160">
+      <c r="RG6" t="s" s="2195">
         <v>56</v>
       </c>
-      <c r="RI6" t="s" s="2161">
+      <c r="RH6" t="s" s="2196">
         <v>57</v>
       </c>
-      <c r="RJ6" t="s" s="2162">
+      <c r="RI6" t="s" s="2197">
         <v>58</v>
       </c>
-      <c r="RK6" t="s" s="2163">
+      <c r="RJ6" t="s" s="2198">
         <v>59</v>
       </c>
-      <c r="RL6" t="s" s="2164">
+      <c r="RK6" t="s" s="2199">
         <v>60</v>
       </c>
-      <c r="RM6" t="s" s="2165">
+      <c r="RL6" t="s" s="2200">
         <v>61</v>
       </c>
-      <c r="RN6" t="s" s="2166">
+      <c r="RM6" t="s" s="2201">
         <v>62</v>
       </c>
-      <c r="RO6" t="s" s="2167">
-        <v>51</v>
-      </c>
-      <c r="RP6" t="s" s="2168">
+      <c r="RN6" t="s" s="2202">
+        <v>63</v>
+      </c>
+      <c r="RO6" t="s" s="2203">
         <v>52</v>
       </c>
-      <c r="RQ6" t="s" s="2169">
+      <c r="RP6" t="s" s="2204">
         <v>53</v>
       </c>
-      <c r="RR6" t="s" s="2170">
+      <c r="RQ6" t="s" s="2205">
         <v>54</v>
       </c>
-      <c r="RS6" t="s" s="2171">
+      <c r="RR6" t="s" s="2206">
         <v>55</v>
       </c>
-      <c r="RT6" t="s" s="2172">
+      <c r="RS6" t="s" s="2207">
         <v>56</v>
       </c>
-      <c r="RU6" t="s" s="2173">
+      <c r="RT6" t="s" s="2208">
         <v>57</v>
       </c>
-      <c r="RV6" t="s" s="2174">
+      <c r="RU6" t="s" s="2209">
         <v>58</v>
       </c>
-      <c r="RW6" t="s" s="2175">
+      <c r="RV6" t="s" s="2210">
         <v>59</v>
       </c>
-      <c r="RX6" t="s" s="2176">
+      <c r="RW6" t="s" s="2211">
         <v>60</v>
       </c>
-      <c r="RY6" t="s" s="2177">
+      <c r="RX6" t="s" s="2212">
         <v>61</v>
       </c>
-      <c r="RZ6" t="s" s="2178">
+      <c r="RY6" t="s" s="2213">
         <v>62</v>
       </c>
-      <c r="SA6" t="s" s="2179">
-        <v>51</v>
-      </c>
-      <c r="SB6" t="s" s="2180">
+      <c r="RZ6" t="s" s="2214">
+        <v>63</v>
+      </c>
+      <c r="SA6" t="s" s="2215">
         <v>52</v>
       </c>
-      <c r="SC6" t="s" s="2181">
+      <c r="SB6" t="s" s="2216">
         <v>53</v>
       </c>
-      <c r="SD6" t="s" s="2182">
+      <c r="SC6" t="s" s="2217">
         <v>54</v>
       </c>
-      <c r="SE6" t="s" s="2183">
+      <c r="SD6" t="s" s="2218">
         <v>55</v>
       </c>
-      <c r="SF6" t="s" s="2184">
+      <c r="SE6" t="s" s="2219">
         <v>56</v>
       </c>
-      <c r="SG6" t="s" s="2185">
+      <c r="SF6" t="s" s="2220">
         <v>57</v>
       </c>
-      <c r="SH6" t="s" s="2186">
+      <c r="SG6" t="s" s="2221">
         <v>58</v>
       </c>
-      <c r="SI6" t="s" s="2187">
+      <c r="SH6" t="s" s="2222">
         <v>59</v>
       </c>
-      <c r="SJ6" t="s" s="2188">
+      <c r="SI6" t="s" s="2223">
         <v>60</v>
       </c>
-      <c r="SK6" t="s" s="2189">
+      <c r="SJ6" t="s" s="2224">
         <v>61</v>
       </c>
-      <c r="SL6" t="s" s="2190">
+      <c r="SK6" t="s" s="2225">
         <v>62</v>
       </c>
-      <c r="SM6" t="s" s="2191">
-        <v>51</v>
-      </c>
-      <c r="SN6" t="s" s="2192">
+      <c r="SL6" t="s" s="2226">
+        <v>63</v>
+      </c>
+      <c r="SM6" t="s" s="2227">
         <v>52</v>
       </c>
-      <c r="SO6" t="s" s="2193">
+      <c r="SN6" t="s" s="2228">
         <v>53</v>
       </c>
-      <c r="SP6" t="s" s="2194">
+      <c r="SO6" t="s" s="2229">
         <v>54</v>
       </c>
-      <c r="SQ6" t="s" s="2195">
+      <c r="SP6" t="s" s="2230">
         <v>55</v>
       </c>
-      <c r="SR6" t="s" s="2196">
+      <c r="SQ6" t="s" s="2231">
         <v>56</v>
       </c>
-      <c r="SS6" t="s" s="2197">
+      <c r="SR6" t="s" s="2232">
         <v>57</v>
       </c>
-      <c r="ST6" t="s" s="2198">
+      <c r="SS6" t="s" s="2233">
         <v>58</v>
       </c>
-      <c r="SU6" t="s" s="2199">
+      <c r="ST6" t="s" s="2234">
         <v>59</v>
       </c>
-      <c r="SV6" t="s" s="2200">
+      <c r="SU6" t="s" s="2235">
         <v>60</v>
       </c>
-      <c r="SW6" t="s" s="2201">
+      <c r="SV6" t="s" s="2236">
         <v>61</v>
       </c>
-      <c r="SX6" t="s" s="2202">
+      <c r="SW6" t="s" s="2237">
         <v>62</v>
       </c>
-      <c r="SY6" t="s" s="2203">
-        <v>51</v>
-      </c>
-      <c r="SZ6" t="s" s="2204">
+      <c r="SX6" t="s" s="2238">
+        <v>63</v>
+      </c>
+      <c r="SY6" t="s" s="2239">
         <v>52</v>
       </c>
-      <c r="TA6" t="s" s="2205">
+      <c r="SZ6" t="s" s="2240">
         <v>53</v>
       </c>
-      <c r="TB6" t="s" s="2206">
+      <c r="TA6" t="s" s="2241">
         <v>54</v>
       </c>
-      <c r="TC6" t="s" s="2207">
+      <c r="TB6" t="s" s="2242">
         <v>55</v>
       </c>
-      <c r="TD6" t="s" s="2208">
+      <c r="TC6" t="s" s="2243">
         <v>56</v>
       </c>
-      <c r="TE6" t="s" s="2209">
+      <c r="TD6" t="s" s="2244">
         <v>57</v>
       </c>
-      <c r="TF6" t="s" s="2210">
+      <c r="TE6" t="s" s="2245">
         <v>58</v>
       </c>
-      <c r="TG6" t="s" s="2211">
+      <c r="TF6" t="s" s="2246">
         <v>59</v>
       </c>
-      <c r="TH6" t="s" s="2212">
+      <c r="TG6" t="s" s="2247">
         <v>60</v>
       </c>
-      <c r="TI6" t="s" s="2213">
+      <c r="TH6" t="s" s="2248">
         <v>61</v>
       </c>
-      <c r="TJ6" t="s" s="2214">
+      <c r="TI6" t="s" s="2249">
         <v>62</v>
       </c>
-      <c r="TK6" t="s" s="2215">
-        <v>51</v>
-      </c>
-      <c r="TL6" t="s" s="2216">
+      <c r="TJ6" t="s" s="2250">
+        <v>63</v>
+      </c>
+      <c r="TK6" t="s" s="2251">
         <v>52</v>
       </c>
-      <c r="TM6" t="s" s="2217">
+      <c r="TL6" t="s" s="2252">
         <v>53</v>
       </c>
-      <c r="TN6" t="s" s="2218">
+      <c r="TM6" t="s" s="2253">
         <v>54</v>
       </c>
-      <c r="TO6" t="s" s="2219">
+      <c r="TN6" t="s" s="2254">
         <v>55</v>
       </c>
-      <c r="TP6" t="s" s="2220">
+      <c r="TO6" t="s" s="2255">
         <v>56</v>
       </c>
-      <c r="TQ6" t="s" s="2221">
+      <c r="TP6" t="s" s="2256">
         <v>57</v>
       </c>
-      <c r="TR6" t="s" s="2222">
+      <c r="TQ6" t="s" s="2257">
         <v>58</v>
       </c>
-      <c r="TS6" t="s" s="2223">
+      <c r="TR6" t="s" s="2258">
         <v>59</v>
       </c>
-      <c r="TT6" t="s" s="2224">
+      <c r="TS6" t="s" s="2259">
         <v>60</v>
       </c>
-      <c r="TU6" t="s" s="2225">
+      <c r="TT6" t="s" s="2260">
         <v>61</v>
       </c>
-      <c r="TV6" t="s" s="2226">
+      <c r="TU6" t="s" s="2261">
         <v>62</v>
       </c>
-      <c r="TW6" t="s" s="2227">
-        <v>51</v>
-      </c>
-      <c r="TX6" t="s" s="2228">
+      <c r="TV6" t="s" s="2262">
+        <v>63</v>
+      </c>
+      <c r="TW6" t="s" s="2263">
         <v>52</v>
       </c>
-      <c r="TY6" t="s" s="2229">
+      <c r="TX6" t="s" s="2264">
         <v>53</v>
       </c>
-      <c r="TZ6" t="s" s="2230">
+      <c r="TY6" t="s" s="2265">
         <v>54</v>
       </c>
-      <c r="UA6" t="s" s="2231">
+      <c r="TZ6" t="s" s="2266">
         <v>55</v>
       </c>
-      <c r="UB6" t="s" s="2232">
+      <c r="UA6" t="s" s="2267">
         <v>56</v>
       </c>
-      <c r="UC6" t="s" s="2233">
+      <c r="UB6" t="s" s="2268">
         <v>57</v>
       </c>
-      <c r="UD6" t="s" s="2234">
+      <c r="UC6" t="s" s="2269">
         <v>58</v>
       </c>
-      <c r="UE6" t="s" s="2235">
+      <c r="UD6" t="s" s="2270">
         <v>59</v>
       </c>
-      <c r="UF6" t="s" s="2236">
+      <c r="UE6" t="s" s="2271">
         <v>60</v>
       </c>
-      <c r="UG6" t="s" s="2237">
+      <c r="UF6" t="s" s="2272">
         <v>61</v>
       </c>
-      <c r="UH6" t="s" s="2238">
+      <c r="UG6" t="s" s="2273">
         <v>62</v>
+      </c>
+      <c r="UH6" t="s" s="2274">
+        <v>63</v>
+      </c>
+      <c r="UI6" t="s" s="2275">
+        <v>52</v>
+      </c>
+      <c r="UJ6" t="s" s="2276">
+        <v>53</v>
+      </c>
+      <c r="UK6" t="s" s="2277">
+        <v>54</v>
+      </c>
+      <c r="UL6" t="s" s="2278">
+        <v>55</v>
+      </c>
+      <c r="UM6" t="s" s="2279">
+        <v>56</v>
+      </c>
+      <c r="UN6" t="s" s="2280">
+        <v>57</v>
+      </c>
+      <c r="UO6" t="s" s="2281">
+        <v>58</v>
+      </c>
+      <c r="UP6" t="s" s="2282">
+        <v>59</v>
+      </c>
+      <c r="UQ6" t="s" s="2283">
+        <v>60</v>
+      </c>
+      <c r="UR6" t="s" s="2284">
+        <v>61</v>
+      </c>
+      <c r="US6" t="s" s="2285">
+        <v>62</v>
+      </c>
+      <c r="UT6" t="s" s="2286">
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s" s="13">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AH7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AM7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AN7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AO7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AP7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AQ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AR7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AS7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AT7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AU7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AV7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AW7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AX7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AY7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AZ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BA7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BB7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BC7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BD7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BE7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BF7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BG7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BH7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BI7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BJ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BK7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BL7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BM7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BN7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BO7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BQ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BR7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BS7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BT7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BU7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BV7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BW7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BX7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BY7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BZ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CA7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CB7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CC7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CD7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CE7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CF7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CG7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CH7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CI7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CJ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CK7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CL7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CM7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CN7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CO7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CP7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CQ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CR7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CS7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CT7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CU7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CV7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CW7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CX7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CY7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CZ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DA7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DB7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DC7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DD7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DE7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DF7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DG7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DH7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DI7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DJ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DK7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DL7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DM7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DN7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DO7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DP7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DQ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DR7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DS7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DT7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DU7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DV7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DW7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DX7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DY7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DZ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EA7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EB7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EC7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="ED7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EE7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EF7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EG7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EH7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EI7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EJ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EK7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EL7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EM7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EN7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EO7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EP7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EQ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="ER7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="ES7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="ET7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EU7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EV7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EW7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EX7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EY7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EZ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FA7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FB7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FC7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FD7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FE7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FF7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FG7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FH7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FI7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FJ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FK7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FL7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FM7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FN7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FO7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FP7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FQ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FR7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FS7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FT7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FU7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FV7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FW7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FX7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FY7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FZ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GA7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GB7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GC7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GD7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GE7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GF7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GG7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GH7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GI7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GJ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GK7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GL7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GM7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GN7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GO7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GP7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GQ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GR7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GS7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GT7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GU7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GV7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GW7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GX7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GY7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GZ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HA7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HB7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HC7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HD7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HE7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HF7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HG7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HH7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HI7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HJ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HK7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HL7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HM7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HN7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HO7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HP7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HQ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HR7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HS7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HT7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HU7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HV7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HW7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HX7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HY7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HZ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IA7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IB7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IC7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="ID7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IE7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IF7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IG7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IH7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="II7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IJ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IK7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IL7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IM7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IN7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IO7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IP7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IQ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IR7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IS7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IT7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IU7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IV7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IW7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IX7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IY7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IZ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JA7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JB7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JC7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JD7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JE7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JF7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JG7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JH7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JI7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JJ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JK7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JL7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JM7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JN7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JO7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JP7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JQ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JR7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JS7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JT7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JU7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JV7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JW7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JX7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JY7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JZ7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="KA7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="KB7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="KC7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="KD7" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="KE7" t="n" s="10">
         <v>83.5</v>
@@ -13733,880 +13978,916 @@
       <c r="UG7" t="n" s="10">
         <v>114.8</v>
       </c>
-      <c r="UH7" t="s" s="10">
-        <v>66</v>
+      <c r="UH7" t="n" s="10">
+        <v>116.2</v>
+      </c>
+      <c r="UI7" t="n" s="10">
+        <v>121.2</v>
+      </c>
+      <c r="UJ7" t="n" s="10">
+        <v>121.2</v>
+      </c>
+      <c r="UK7" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UL7" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UM7" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UN7" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UO7" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UP7" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UQ7" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UR7" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="US7" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UT7" t="s" s="10">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AH8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AM8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AN8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AO8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AP8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AQ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AR8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AS8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AT8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AU8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AV8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AW8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AX8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AY8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AZ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BA8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BB8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BC8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BD8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BE8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BF8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BG8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BH8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BI8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BJ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BK8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BL8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BM8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BN8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BO8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BQ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BR8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BS8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BT8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BU8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BV8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BW8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BX8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BY8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BZ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CA8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CB8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CC8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CD8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CE8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CF8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CG8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CH8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CI8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CJ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CK8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CL8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CM8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CN8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CO8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CP8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CQ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CR8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CS8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CT8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CU8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CV8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CW8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CX8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CY8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CZ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DA8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DB8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DC8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DD8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DE8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DF8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DG8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DH8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DI8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DJ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DK8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DL8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DM8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DN8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DO8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DP8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DQ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DR8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DS8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DT8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DU8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DV8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DW8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DX8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DY8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DZ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EA8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EB8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EC8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="ED8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EE8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EF8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EG8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EH8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EI8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EJ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EK8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EL8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EM8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EN8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EO8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EP8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EQ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="ER8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="ES8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="ET8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EU8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EV8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EW8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EX8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EY8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="EZ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FA8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FB8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FC8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FD8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FE8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FF8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FG8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FH8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FI8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FJ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FK8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FL8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FM8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FN8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FO8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FP8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FQ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FR8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FS8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FT8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FU8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FV8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FW8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FX8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FY8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="FZ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GA8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GB8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GC8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GD8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GE8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GF8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GG8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GH8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GI8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GJ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GK8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GL8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GM8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GN8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GO8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GP8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GQ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GR8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GS8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GT8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GU8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GV8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GW8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GX8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GY8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GZ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HA8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HB8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HC8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HD8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HE8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HF8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HG8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HH8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HI8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HJ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HK8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HL8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HM8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HN8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HO8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HP8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HQ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HR8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HS8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HT8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HU8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HV8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HW8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HX8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HY8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="HZ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IA8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IB8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IC8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="ID8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IE8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IF8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IG8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IH8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="II8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IJ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IK8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IL8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IM8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IN8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IO8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IP8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IQ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IR8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IS8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IT8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IU8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IV8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IW8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IX8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IY8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="IZ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JA8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JB8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JC8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JD8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JE8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JF8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JG8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JH8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JI8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JJ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JK8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JL8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JM8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JN8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JO8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JP8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JQ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JR8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JS8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JT8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JU8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JV8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JW8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JX8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JY8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="JZ8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="KA8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="KB8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="KC8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="KD8" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="KE8" t="n" s="10">
         <v>76.6</v>
@@ -15397,25 +15678,61 @@
       <c r="UG8" t="n" s="10">
         <v>106.1</v>
       </c>
-      <c r="UH8" t="s" s="10">
-        <v>66</v>
+      <c r="UH8" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="UI8" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="UJ8" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="UK8" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UL8" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UM8" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UN8" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UO8" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UP8" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UQ8" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UR8" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="US8" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="UT8" t="s" s="10">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="12">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:UH2"/>
-    <mergeCell ref="A3:UH3"/>
-    <mergeCell ref="A4:UH4"/>
+    <mergeCell ref="A2:UT2"/>
+    <mergeCell ref="A3:UT3"/>
+    <mergeCell ref="A4:UT4"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="O5:Z5"/>
@@ -15463,11 +15780,12 @@
     <mergeCell ref="SY5:TJ5"/>
     <mergeCell ref="TK5:TV5"/>
     <mergeCell ref="TW5:UH5"/>
-    <mergeCell ref="A1:UH1"/>
+    <mergeCell ref="UI5:UT5"/>
+    <mergeCell ref="A1:UT1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:31:14&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:07:05&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>